--- a/Results/Results_region_Avg.xlsx
+++ b/Results/Results_region_Avg.xlsx
@@ -720,241 +720,241 @@
         <v>13.66881829673142</v>
       </c>
       <c r="O2">
-        <v>16.45896651099059</v>
+        <v>16.53729552873043</v>
       </c>
       <c r="P2">
-        <v>32.47667364547494</v>
+        <v>32.65991303150619</v>
       </c>
       <c r="Q2">
-        <v>33.18438625622772</v>
+        <v>33.50978306944784</v>
       </c>
       <c r="R2">
-        <v>33.95524896379538</v>
+        <v>34.47274419342262</v>
       </c>
       <c r="S2">
-        <v>83.12594782958726</v>
+        <v>83.89696317695933</v>
       </c>
       <c r="T2">
-        <v>82.81606001317385</v>
+        <v>83.90196531791233</v>
       </c>
       <c r="U2">
-        <v>82.96768572743517</v>
+        <v>84.40678095343723</v>
       </c>
       <c r="V2">
-        <v>83.76538262215293</v>
+        <v>85.53523749694472</v>
       </c>
       <c r="W2">
-        <v>84.67145221765765</v>
+        <v>86.63200709857463</v>
       </c>
       <c r="X2">
-        <v>78.59012557140926</v>
+        <v>80.36689197994593</v>
       </c>
       <c r="Y2">
-        <v>79.81751691177342</v>
+        <v>80.61193759497303</v>
       </c>
       <c r="Z2">
-        <v>80.64188668219303</v>
+        <v>79.39644159763645</v>
       </c>
       <c r="AA2">
-        <v>81.62055187166091</v>
+        <v>78.11373592258855</v>
       </c>
       <c r="AB2">
-        <v>84.60203617751904</v>
+        <v>79.56838614270727</v>
       </c>
       <c r="AC2">
-        <v>33.43374260240614</v>
+        <v>27.5405329338482</v>
       </c>
       <c r="AD2">
-        <v>38.14699965363189</v>
+        <v>31.74175535131721</v>
       </c>
       <c r="AE2">
-        <v>42.54690660536737</v>
+        <v>35.78210987375792</v>
       </c>
       <c r="AF2">
-        <v>42.02387257958059</v>
+        <v>34.96315773643022</v>
       </c>
       <c r="AG2">
-        <v>40.37628018182783</v>
+        <v>33.04464078908396</v>
       </c>
       <c r="AH2">
-        <v>32.57613813274951</v>
+        <v>24.97739306257506</v>
       </c>
       <c r="AI2">
-        <v>31.20090169970712</v>
+        <v>23.33605138483905</v>
       </c>
       <c r="AJ2">
-        <v>29.46365709924138</v>
+        <v>21.33091464951674</v>
       </c>
       <c r="AK2">
-        <v>28.17014216262197</v>
+        <v>19.76709401815119</v>
       </c>
       <c r="AL2">
-        <v>31.8192879912643</v>
+        <v>23.14393834870959</v>
       </c>
       <c r="AM2">
-        <v>40.62040770229866</v>
+        <v>31.66912513456392</v>
       </c>
       <c r="AN2">
-        <v>50.40403284517382</v>
+        <v>41.17694328530683</v>
       </c>
       <c r="AO2">
-        <v>64.32025686012094</v>
+        <v>54.81842540295635</v>
       </c>
       <c r="AP2">
-        <v>82.20257023680621</v>
+        <v>72.42785890837553</v>
       </c>
       <c r="AQ2">
-        <v>91.43393343568698</v>
+        <v>81.38882949622484</v>
       </c>
       <c r="AR2">
-        <v>92.4438531735496</v>
+        <v>82.12480702570163</v>
       </c>
       <c r="AS2">
-        <v>92.47100561022984</v>
+        <v>81.88136684885581</v>
       </c>
       <c r="AT2">
-        <v>91.56383473900767</v>
+        <v>80.70712710952945</v>
       </c>
       <c r="AU2">
-        <v>89.8450091907881</v>
+        <v>78.72483363257967</v>
       </c>
       <c r="AV2">
-        <v>89.27434926237214</v>
+        <v>77.89431113615042</v>
       </c>
       <c r="AW2">
-        <v>88.09503986457469</v>
+        <v>76.44106602878321</v>
       </c>
       <c r="AX2">
-        <v>92.14512751395112</v>
+        <v>80.22065151881182</v>
       </c>
       <c r="AY2">
-        <v>80.46411452796839</v>
+        <v>68.27246452063541</v>
       </c>
       <c r="AZ2">
-        <v>64.32793053463533</v>
+        <v>51.87231400592684</v>
       </c>
       <c r="BA2">
-        <v>57.35576256431957</v>
+        <v>44.63925786365926</v>
       </c>
       <c r="BB2">
-        <v>56.96180612634192</v>
+        <v>43.96794411902849</v>
       </c>
       <c r="BC2">
-        <v>55.95618510083137</v>
+        <v>42.68772527754083</v>
       </c>
       <c r="BD2">
-        <v>52.89038671065758</v>
+        <v>39.34996182373987</v>
       </c>
       <c r="BE2">
-        <v>49.17592942757597</v>
+        <v>35.36604898540237</v>
       </c>
       <c r="BF2">
-        <v>46.8785979043291</v>
+        <v>32.8016527361322</v>
       </c>
       <c r="BG2">
-        <v>45.45699726554091</v>
+        <v>31.10256777924914</v>
       </c>
       <c r="BH2">
-        <v>47.37543545545474</v>
+        <v>32.74570199112161</v>
       </c>
       <c r="BI2">
-        <v>52.7962563211056</v>
+        <v>37.89329659174915</v>
       </c>
       <c r="BJ2">
-        <v>61.7164187175946</v>
+        <v>46.54221399473835</v>
       </c>
       <c r="BK2">
-        <v>73.02871792134285</v>
+        <v>57.58515936315236</v>
       </c>
       <c r="BL2">
-        <v>84.82079582090111</v>
+        <v>69.10287689568803</v>
       </c>
       <c r="BM2">
-        <v>96.27090442118708</v>
+        <v>80.28036002300315</v>
       </c>
       <c r="BN2">
-        <v>103.1516577599321</v>
+        <v>86.89015191850855</v>
       </c>
       <c r="BO2">
-        <v>105.2671214033635</v>
+        <v>88.73625442985168</v>
       </c>
       <c r="BP2">
-        <v>105.1546967056441</v>
+        <v>88.35601267269089</v>
       </c>
       <c r="BQ2">
-        <v>103.7778309155457</v>
+        <v>86.70180076126177</v>
       </c>
       <c r="BR2">
-        <v>102.7129916534782</v>
+        <v>85.36104009915439</v>
       </c>
       <c r="BS2">
-        <v>101.6545758941218</v>
+        <v>84.02809949000978</v>
       </c>
       <c r="BT2">
-        <v>100.1560621769377</v>
+        <v>82.25643888218042</v>
       </c>
       <c r="BU2">
-        <v>96.43491972235195</v>
+        <v>78.26351926452183</v>
       </c>
       <c r="BV2">
-        <v>87.74679654278417</v>
+        <v>69.29456455703061</v>
       </c>
       <c r="BW2">
-        <v>78.32130571830525</v>
+        <v>59.58962355023083</v>
       </c>
       <c r="BX2">
-        <v>72.60635556186578</v>
+        <v>53.59663258573771</v>
       </c>
       <c r="BY2">
-        <v>70.34632603884754</v>
+        <v>51.06001287727523</v>
       </c>
       <c r="BZ2">
-        <v>68.63610512467292</v>
+        <v>49.07470706940082</v>
       </c>
       <c r="CA2">
-        <v>65.70084530138647</v>
+        <v>45.85308390630333</v>
       </c>
       <c r="CB2">
-        <v>63.41002606753487</v>
+        <v>43.27754880069295</v>
       </c>
       <c r="CC2">
-        <v>62.29307090784513</v>
+        <v>41.87761587694003</v>
       </c>
       <c r="CD2">
-        <v>63.19081689544696</v>
+        <v>42.49421978768191</v>
       </c>
       <c r="CE2">
-        <v>66.86649319790861</v>
+        <v>45.89068958562314</v>
       </c>
       <c r="CF2">
-        <v>72.92833741322656</v>
+        <v>51.65964667724923</v>
       </c>
       <c r="CG2">
-        <v>82.11967532805092</v>
+        <v>60.56020975790016</v>
       </c>
       <c r="CH2">
-        <v>92.60769963534386</v>
+        <v>70.75963592450023</v>
       </c>
       <c r="CI2">
-        <v>102.828503735574</v>
+        <v>80.69405208165078</v>
       </c>
       <c r="CJ2">
-        <v>111.1526690284734</v>
+        <v>88.7340321911236</v>
       </c>
       <c r="CK2">
-        <v>115.3705508884514</v>
+        <v>92.65301438761838</v>
       </c>
       <c r="CL2">
-        <v>117.2711864014433</v>
+        <v>94.25678307692118</v>
       </c>
       <c r="CM2">
-        <v>117.1569749238632</v>
+        <v>93.84756608434833</v>
       </c>
       <c r="CN2">
-        <v>116.1412950306306</v>
+        <v>92.53851337231646</v>
       </c>
       <c r="CO2">
-        <v>114.7594911078896</v>
+        <v>90.86469086380013</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -997,241 +997,241 @@
         <v>4.581848595319341</v>
       </c>
       <c r="O3">
-        <v>5.566616279863836</v>
+        <v>5.580074814164931</v>
       </c>
       <c r="P3">
-        <v>11.26015184855972</v>
+        <v>11.28947195911794</v>
       </c>
       <c r="Q3">
-        <v>11.49302859621878</v>
+        <v>11.54107450611829</v>
       </c>
       <c r="R3">
-        <v>11.74689697831735</v>
+        <v>11.81691491764859</v>
       </c>
       <c r="S3">
-        <v>29.25757253495736</v>
+        <v>29.35306300279317</v>
       </c>
       <c r="T3">
-        <v>29.15215216501594</v>
+        <v>29.27510551785205</v>
       </c>
       <c r="U3">
-        <v>29.19984916535695</v>
+        <v>29.34809038739386</v>
       </c>
       <c r="V3">
-        <v>29.46187125256223</v>
+        <v>29.62269345791109</v>
       </c>
       <c r="W3">
-        <v>29.75987321204587</v>
+        <v>29.89383784099516</v>
       </c>
       <c r="X3">
-        <v>27.5643330734027</v>
+        <v>27.56236509875679</v>
       </c>
       <c r="Y3">
-        <v>27.96934262350452</v>
+        <v>27.57700287060829</v>
       </c>
       <c r="Z3">
-        <v>28.24069559275247</v>
+        <v>27.11192017214816</v>
       </c>
       <c r="AA3">
-        <v>28.56323690173121</v>
+        <v>26.64531805593975</v>
       </c>
       <c r="AB3">
-        <v>29.55007775386505</v>
+        <v>27.11934734811617</v>
       </c>
       <c r="AC3">
-        <v>11.20309747539219</v>
+        <v>8.500324749309007</v>
       </c>
       <c r="AD3">
-        <v>12.76450119388533</v>
+        <v>9.910866144740853</v>
       </c>
       <c r="AE3">
-        <v>14.22216371792288</v>
+        <v>11.26899043606926</v>
       </c>
       <c r="AF3">
-        <v>14.04732603067574</v>
+        <v>11.01516482380056</v>
       </c>
       <c r="AG3">
-        <v>13.49991458168039</v>
+        <v>10.39633407837086</v>
       </c>
       <c r="AH3">
-        <v>10.72170253489577</v>
+        <v>7.547592943247581</v>
       </c>
       <c r="AI3">
-        <v>10.26566838529726</v>
+        <v>7.02076523790983</v>
       </c>
       <c r="AJ3">
-        <v>9.690305398673829</v>
+        <v>6.373485455303605</v>
       </c>
       <c r="AK3">
-        <v>9.262898849451032</v>
+        <v>5.872877908775166</v>
       </c>
       <c r="AL3">
-        <v>10.47559675615411</v>
+        <v>7.011262183726394</v>
       </c>
       <c r="AM3">
-        <v>13.39772545259747</v>
+        <v>9.857688557391393</v>
       </c>
       <c r="AN3">
-        <v>16.64627762081107</v>
+        <v>13.03012720847037</v>
       </c>
       <c r="AO3">
-        <v>21.26581602917067</v>
+        <v>17.57345948399982</v>
       </c>
       <c r="AP3">
-        <v>27.20082870569693</v>
+        <v>23.43243913705042</v>
       </c>
       <c r="AQ3">
-        <v>30.26631822150683</v>
+        <v>26.42227375662677</v>
       </c>
       <c r="AR3">
-        <v>30.60430669238274</v>
+        <v>26.68273513989504</v>
       </c>
       <c r="AS3">
-        <v>30.61533132668312</v>
+        <v>26.61688389559803</v>
       </c>
       <c r="AT3">
-        <v>30.31514351140279</v>
+        <v>26.24052461564147</v>
       </c>
       <c r="AU3">
-        <v>29.74419622420879</v>
+        <v>25.59413263986169</v>
       </c>
       <c r="AV3">
-        <v>29.56260074950167</v>
+        <v>25.33781920742282</v>
       </c>
       <c r="AW3">
-        <v>29.16994782742157</v>
+        <v>24.86487072839971</v>
       </c>
       <c r="AX3">
-        <v>30.72782254108575</v>
+        <v>26.3431280111841</v>
       </c>
       <c r="AY3">
-        <v>26.84644303730363</v>
+        <v>22.38277811345282</v>
       </c>
       <c r="AZ3">
-        <v>21.48652731120886</v>
+        <v>16.94450458076821</v>
       </c>
       <c r="BA3">
-        <v>19.16551302205412</v>
+        <v>14.5457093282046</v>
       </c>
       <c r="BB3">
-        <v>18.99866543759771</v>
+        <v>14.29464041163383</v>
       </c>
       <c r="BC3">
-        <v>18.65659841149002</v>
+        <v>13.86885246384127</v>
       </c>
       <c r="BD3">
-        <v>17.63192946484331</v>
+        <v>12.76093072201702</v>
       </c>
       <c r="BE3">
-        <v>16.39311369769108</v>
+        <v>11.43930000290703</v>
       </c>
       <c r="BF3">
-        <v>15.62551024756854</v>
+        <v>10.58929137157962</v>
       </c>
       <c r="BG3">
-        <v>15.12242770742607</v>
+        <v>9.999720770017486</v>
       </c>
       <c r="BH3">
-        <v>15.75537061216283</v>
+        <v>10.54653654390399</v>
       </c>
       <c r="BI3">
-        <v>17.55111999168822</v>
+        <v>12.25649863962851</v>
       </c>
       <c r="BJ3">
-        <v>20.50848795916133</v>
+        <v>15.12840040955433</v>
       </c>
       <c r="BK3">
-        <v>24.2600302410299</v>
+        <v>18.79478112601935</v>
       </c>
       <c r="BL3">
-        <v>28.15065875720872</v>
+        <v>22.59811556131597</v>
       </c>
       <c r="BM3">
-        <v>31.94846167498011</v>
+        <v>26.30890371990647</v>
       </c>
       <c r="BN3">
-        <v>34.23086967457989</v>
+        <v>28.50456665461573</v>
       </c>
       <c r="BO3">
-        <v>34.93270224405946</v>
+        <v>29.11991665510628</v>
       </c>
       <c r="BP3">
-        <v>34.89535551637122</v>
+        <v>28.99634517926598</v>
       </c>
       <c r="BQ3">
-        <v>34.42359969170622</v>
+        <v>28.43477908646619</v>
       </c>
       <c r="BR3">
-        <v>34.06892517423272</v>
+        <v>27.99054745663095</v>
       </c>
       <c r="BS3">
-        <v>33.71573679349081</v>
+        <v>27.5480593758252</v>
       </c>
       <c r="BT3">
-        <v>33.21587291199811</v>
+        <v>26.95916066936718</v>
       </c>
       <c r="BU3">
-        <v>31.97809757041287</v>
+        <v>25.63262627989006</v>
       </c>
       <c r="BV3">
-        <v>29.07802651219252</v>
+        <v>22.64040809513711</v>
       </c>
       <c r="BW3">
-        <v>25.94651088518951</v>
+        <v>19.41705348330744</v>
       </c>
       <c r="BX3">
-        <v>24.0450683017943</v>
+        <v>17.42410262466541</v>
       </c>
       <c r="BY3">
-        <v>23.28904432854982</v>
+        <v>16.57692774809201</v>
       </c>
       <c r="BZ3">
-        <v>22.71506687351103</v>
+        <v>15.91218742573705</v>
       </c>
       <c r="CA3">
-        <v>21.71982680528093</v>
+        <v>14.82207689186153</v>
       </c>
       <c r="CB3">
-        <v>20.95286888313362</v>
+        <v>13.96070802054617</v>
       </c>
       <c r="CC3">
-        <v>20.57547650564096</v>
+        <v>13.48940394812932</v>
       </c>
       <c r="CD3">
-        <v>20.86667717363465</v>
+        <v>13.68723261080762</v>
       </c>
       <c r="CE3">
-        <v>22.07972086336534</v>
+        <v>14.80748316840251</v>
       </c>
       <c r="CF3">
-        <v>24.06805030168334</v>
+        <v>16.69807223399726</v>
       </c>
       <c r="CG3">
-        <v>27.11124402999143</v>
+        <v>19.64416929454793</v>
       </c>
       <c r="CH3">
-        <v>30.58506085276396</v>
+        <v>23.02155203110154</v>
       </c>
       <c r="CI3">
-        <v>33.97074287282835</v>
+        <v>26.31146777803976</v>
       </c>
       <c r="CJ3">
-        <v>36.72777657953363</v>
+        <v>28.97339127375314</v>
       </c>
       <c r="CK3">
-        <v>38.1005940702884</v>
+        <v>30.24575238892286</v>
       </c>
       <c r="CL3">
-        <v>38.72736094318336</v>
+        <v>30.77263697414765</v>
       </c>
       <c r="CM3">
-        <v>38.68592956154258</v>
+        <v>30.63182360704393</v>
       </c>
       <c r="CN3">
-        <v>38.34545737532105</v>
+        <v>30.1923763384986</v>
       </c>
       <c r="CO3">
-        <v>37.88339859792318</v>
+        <v>29.63164001497001</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1274,241 +1274,241 @@
         <v>67829.98740501306</v>
       </c>
       <c r="O4">
-        <v>71483.86776560744</v>
+        <v>72122.09543227535</v>
       </c>
       <c r="P4">
-        <v>75505.59967660956</v>
+        <v>76808.40032516685</v>
       </c>
       <c r="Q4">
-        <v>79137.75843369385</v>
+        <v>81105.35650039752</v>
       </c>
       <c r="R4">
-        <v>82760.01153441751</v>
+        <v>85343.01887032331</v>
       </c>
       <c r="S4">
-        <v>87574.4713611547</v>
+        <v>90679.34991247808</v>
       </c>
       <c r="T4">
-        <v>91152.33270394604</v>
+        <v>94516.24062322473</v>
       </c>
       <c r="U4">
-        <v>94733.39139751384</v>
+        <v>97862.8250649714</v>
       </c>
       <c r="V4">
-        <v>98317.03908755214</v>
+        <v>100396.7081305644</v>
       </c>
       <c r="W4">
-        <v>101900.8499904995</v>
+        <v>101805.7141608399</v>
       </c>
       <c r="X4">
-        <v>105003.325479109</v>
+        <v>101847.6889202286</v>
       </c>
       <c r="Y4">
-        <v>108254.9308878094</v>
+        <v>102614.9103175112</v>
       </c>
       <c r="Z4">
-        <v>111496.5947709727</v>
+        <v>104742.4110861186</v>
       </c>
       <c r="AA4">
-        <v>114737.1441306216</v>
+        <v>103218.8440916978</v>
       </c>
       <c r="AB4">
-        <v>117985.4802897144</v>
+        <v>95492.93223358512</v>
       </c>
       <c r="AC4">
-        <v>119752.6804898398</v>
+        <v>85032.60204723026</v>
       </c>
       <c r="AD4">
-        <v>122946.1098419773</v>
+        <v>78293.75613748078</v>
       </c>
       <c r="AE4">
-        <v>126137.872988965</v>
+        <v>74377.2541987264</v>
       </c>
       <c r="AF4">
-        <v>129318.2123416918</v>
+        <v>72577.9679842059</v>
       </c>
       <c r="AG4">
-        <v>132496.7155501637</v>
+        <v>72117.10241501222</v>
       </c>
       <c r="AH4">
-        <v>135458.3093896269</v>
+        <v>72236.0502810597</v>
       </c>
       <c r="AI4">
-        <v>138654.6928279426</v>
+        <v>73010.27722806118</v>
       </c>
       <c r="AJ4">
-        <v>141872.5081142308</v>
+        <v>74026.80618553184</v>
       </c>
       <c r="AK4">
-        <v>145126.3611765127</v>
+        <v>75191.69993760424</v>
       </c>
       <c r="AL4">
-        <v>148439.0386595098</v>
+        <v>76470.52881200053</v>
       </c>
       <c r="AM4">
-        <v>151643.0666804104</v>
+        <v>77846.05872398996</v>
       </c>
       <c r="AN4">
-        <v>154869.318891211</v>
+        <v>79254.72952694625</v>
       </c>
       <c r="AO4">
-        <v>158170.4133822863</v>
+        <v>80741.9676486793</v>
       </c>
       <c r="AP4">
-        <v>161539.3022881538</v>
+        <v>82297.40021213668</v>
       </c>
       <c r="AQ4">
-        <v>164757.6330476496</v>
+        <v>83701.27528249686</v>
       </c>
       <c r="AR4">
-        <v>167655.4508921892</v>
+        <v>85017.88763534061</v>
       </c>
       <c r="AS4">
-        <v>170525.1970769571</v>
+        <v>86304.89079279386</v>
       </c>
       <c r="AT4">
-        <v>173366.8811448049</v>
+        <v>87562.46762397712</v>
       </c>
       <c r="AU4">
-        <v>176181.7442986768</v>
+        <v>88792.09708040222</v>
       </c>
       <c r="AV4">
-        <v>179062.8063279611</v>
+        <v>90087.04339542601</v>
       </c>
       <c r="AW4">
-        <v>181982.9347770322</v>
+        <v>91450.54189188934</v>
       </c>
       <c r="AX4">
-        <v>184952.5057098148</v>
+        <v>92863.01124383096</v>
       </c>
       <c r="AY4">
-        <v>187629.985059501</v>
+        <v>93983.08463535516</v>
       </c>
       <c r="AZ4">
-        <v>190214.8688318688</v>
+        <v>95010.3981446696</v>
       </c>
       <c r="BA4">
-        <v>192960.0479427726</v>
+        <v>96197.95908375239</v>
       </c>
       <c r="BB4">
-        <v>195921.9228886106</v>
+        <v>97667.18780135309</v>
       </c>
       <c r="BC4">
-        <v>198912.2956190895</v>
+        <v>99165.0182593689</v>
       </c>
       <c r="BD4">
-        <v>201888.3538869043</v>
+        <v>100648.7076470891</v>
       </c>
       <c r="BE4">
-        <v>204865.9668382084</v>
+        <v>102134.1857918131</v>
       </c>
       <c r="BF4">
-        <v>207889.2143883388</v>
+        <v>103665.5875651047</v>
       </c>
       <c r="BG4">
-        <v>211013.4425613905</v>
+        <v>105324.9861609121</v>
       </c>
       <c r="BH4">
-        <v>214211.3337207452</v>
+        <v>107058.4314267085</v>
       </c>
       <c r="BI4">
-        <v>217460.0373184863</v>
+        <v>108843.1257651764</v>
       </c>
       <c r="BJ4">
-        <v>220756.1901013811</v>
+        <v>110675.763397587</v>
       </c>
       <c r="BK4">
-        <v>224091.4210709429</v>
+        <v>112548.0377496171</v>
       </c>
       <c r="BL4">
-        <v>227437.8870018053</v>
+        <v>114479.8378261287</v>
       </c>
       <c r="BM4">
-        <v>230786.1004494778</v>
+        <v>116414.0904283846</v>
       </c>
       <c r="BN4">
-        <v>234054.5088694319</v>
+        <v>118269.3435751842</v>
       </c>
       <c r="BO4">
-        <v>237237.1764009904</v>
+        <v>120039.7799782508</v>
       </c>
       <c r="BP4">
-        <v>240375.691937769</v>
+        <v>121767.1284749212</v>
       </c>
       <c r="BQ4">
-        <v>243646.1756936305</v>
+        <v>123536.9116691066</v>
       </c>
       <c r="BR4">
-        <v>246918.3371373503</v>
+        <v>125309.7811823331</v>
       </c>
       <c r="BS4">
-        <v>250180.4423843636</v>
+        <v>127074.2328435111</v>
       </c>
       <c r="BT4">
-        <v>253422.1403869246</v>
+        <v>128820.1833330605</v>
       </c>
       <c r="BU4">
-        <v>256610.8994748375</v>
+        <v>130515.4111900817</v>
       </c>
       <c r="BV4">
-        <v>259762.3607945054</v>
+        <v>132189.0429069777</v>
       </c>
       <c r="BW4">
-        <v>262900.2446101884</v>
+        <v>133852.0626941103</v>
       </c>
       <c r="BX4">
-        <v>266108.3293172216</v>
+        <v>135588.710188876</v>
       </c>
       <c r="BY4">
-        <v>269391.5805676358</v>
+        <v>137404.4665435936</v>
       </c>
       <c r="BZ4">
-        <v>272702.5589232053</v>
+        <v>139252.460565626</v>
       </c>
       <c r="CA4">
-        <v>276088.5657271206</v>
+        <v>141192.3468011457</v>
       </c>
       <c r="CB4">
-        <v>279501.4970514469</v>
+        <v>143164.9287858873</v>
       </c>
       <c r="CC4">
-        <v>282945.0801920783</v>
+        <v>145174.61203114</v>
       </c>
       <c r="CD4">
-        <v>286430.2660893354</v>
+        <v>147233.0254974769</v>
       </c>
       <c r="CE4">
-        <v>289962.0619514078</v>
+        <v>149345.8234475959</v>
       </c>
       <c r="CF4">
-        <v>293592.8696601379</v>
+        <v>151617.2759161709</v>
       </c>
       <c r="CG4">
-        <v>297274.6804228006</v>
+        <v>153948.5468225599</v>
       </c>
       <c r="CH4">
-        <v>300975.856437516</v>
+        <v>156308.294365254</v>
       </c>
       <c r="CI4">
-        <v>304673.2210763394</v>
+        <v>158673.4157984962</v>
       </c>
       <c r="CJ4">
-        <v>308338.8509303369</v>
+        <v>161015.7895478592</v>
       </c>
       <c r="CK4">
-        <v>311996.9432121635</v>
+        <v>163421.1240993551</v>
       </c>
       <c r="CL4">
-        <v>315619.7015807835</v>
+        <v>165798.7867277289</v>
       </c>
       <c r="CM4">
-        <v>319203.7878132848</v>
+        <v>168144.2708023505</v>
       </c>
       <c r="CN4">
-        <v>322767.0133800247</v>
+        <v>170473.9205898578</v>
       </c>
       <c r="CO4">
-        <v>326317.1338208589</v>
+        <v>172793.7860174999</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1551,241 +1551,241 @@
         <v>666.5816504102838</v>
       </c>
       <c r="O5">
-        <v>845.3122981934619</v>
+        <v>845.3633436663047</v>
       </c>
       <c r="P5">
-        <v>5265.805074096758</v>
+        <v>5265.919704904089</v>
       </c>
       <c r="Q5">
-        <v>5300.066901185128</v>
+        <v>5300.259539645173</v>
       </c>
       <c r="R5">
-        <v>5342.324456157876</v>
+        <v>5342.611357272195</v>
       </c>
       <c r="S5">
-        <v>16711.33947429361</v>
+        <v>16711.73952632636</v>
       </c>
       <c r="T5">
-        <v>16770.91121691227</v>
+        <v>16771.44352748265</v>
       </c>
       <c r="U5">
-        <v>16838.93052919502</v>
+        <v>16839.61144957686</v>
       </c>
       <c r="V5">
-        <v>16914.58928685681</v>
+        <v>16915.4172627215</v>
       </c>
       <c r="W5">
-        <v>16996.60737295666</v>
+        <v>16997.50550297931</v>
       </c>
       <c r="X5">
-        <v>16338.21119761139</v>
+        <v>16338.84755224639</v>
       </c>
       <c r="Y5">
-        <v>16428.19656234367</v>
+        <v>16427.62274955462</v>
       </c>
       <c r="Z5">
-        <v>16520.31009645493</v>
+        <v>16517.09599239966</v>
       </c>
       <c r="AA5">
-        <v>16614.73195492891</v>
+        <v>16608.60631099013</v>
       </c>
       <c r="AB5">
-        <v>16713.77406467405</v>
+        <v>16705.88048949461</v>
       </c>
       <c r="AC5">
-        <v>3602.03002962452</v>
+        <v>3593.343050630125</v>
       </c>
       <c r="AD5">
-        <v>3730.48362040054</v>
+        <v>3721.440201351254</v>
       </c>
       <c r="AE5">
-        <v>3892.075795201108</v>
+        <v>3882.821035990425</v>
       </c>
       <c r="AF5">
-        <v>4104.76900526124</v>
+        <v>4095.336300971685</v>
       </c>
       <c r="AG5">
-        <v>4389.640741026509</v>
+        <v>4380.026206451997</v>
       </c>
       <c r="AH5">
-        <v>2268.077862166961</v>
+        <v>2258.263494490716</v>
       </c>
       <c r="AI5">
-        <v>2762.418975094882</v>
+        <v>2752.38899797206</v>
       </c>
       <c r="AJ5">
-        <v>3387.937318780574</v>
+        <v>3377.677934209502</v>
       </c>
       <c r="AK5">
-        <v>4153.219712193472</v>
+        <v>4142.720236235019</v>
       </c>
       <c r="AL5">
-        <v>5056.831535601252</v>
+        <v>5046.084642914655</v>
       </c>
       <c r="AM5">
-        <v>6085.506264665591</v>
+        <v>6074.504230702471</v>
       </c>
       <c r="AN5">
-        <v>7213.142294284098</v>
+        <v>7201.883906100951</v>
       </c>
       <c r="AO5">
-        <v>8400.770586936545</v>
+        <v>8389.25677636931</v>
       </c>
       <c r="AP5">
-        <v>9597.64653395911</v>
+        <v>9585.87981384641</v>
       </c>
       <c r="AQ5">
-        <v>10743.81881815287</v>
+        <v>10731.80277424472</v>
       </c>
       <c r="AR5">
-        <v>11774.4731940273</v>
+        <v>11762.20209025404</v>
       </c>
       <c r="AS5">
-        <v>12625.78307657036</v>
+        <v>12613.26165746452</v>
       </c>
       <c r="AT5">
-        <v>13241.84118669319</v>
+        <v>13229.07424468244</v>
       </c>
       <c r="AU5">
-        <v>13581.54817568889</v>
+        <v>13568.54038399652</v>
       </c>
       <c r="AV5">
-        <v>15310.8223814154</v>
+        <v>15297.57818627894</v>
       </c>
       <c r="AW5">
-        <v>15536.30439734661</v>
+        <v>15522.80697921397</v>
       </c>
       <c r="AX5">
-        <v>15016.27319991303</v>
+        <v>15002.52636286905</v>
       </c>
       <c r="AY5">
-        <v>14274.41782691905</v>
+        <v>14260.42505084363</v>
       </c>
       <c r="AZ5">
-        <v>13372.58591292155</v>
+        <v>13358.35035896781</v>
       </c>
       <c r="BA5">
-        <v>12381.92396437545</v>
+        <v>12367.44848978292</v>
       </c>
       <c r="BB5">
-        <v>11131.81979781414</v>
+        <v>11117.08337811368</v>
       </c>
       <c r="BC5">
-        <v>10184.6488413144</v>
+        <v>10169.65377817129</v>
       </c>
       <c r="BD5">
-        <v>9360.349678227725</v>
+        <v>9345.098038093918</v>
       </c>
       <c r="BE5">
-        <v>8711.892513572091</v>
+        <v>8696.386150908884</v>
       </c>
       <c r="BF5">
-        <v>8275.949462142587</v>
+        <v>8260.190041684407</v>
       </c>
       <c r="BG5">
-        <v>7828.300908149638</v>
+        <v>7812.275368473614</v>
       </c>
       <c r="BH5">
-        <v>7850.351984284899</v>
+        <v>7834.061668133014</v>
       </c>
       <c r="BI5">
-        <v>8081.064030146706</v>
+        <v>8064.510149118829</v>
       </c>
       <c r="BJ5">
-        <v>8488.64154944718</v>
+        <v>8471.825200169222</v>
       </c>
       <c r="BK5">
-        <v>9034.31272558606</v>
+        <v>9017.234904472529</v>
       </c>
       <c r="BL5">
-        <v>9495.336310657842</v>
+        <v>9477.990335527456</v>
       </c>
       <c r="BM5">
-        <v>10195.29279488579</v>
+        <v>10177.67950425792</v>
       </c>
       <c r="BN5">
-        <v>10914.77581945511</v>
+        <v>10896.89598841253</v>
       </c>
       <c r="BO5">
-        <v>11619.13639460903</v>
+        <v>11600.99074554738</v>
       </c>
       <c r="BP5">
-        <v>12277.04600055091</v>
+        <v>12258.63521330147</v>
       </c>
       <c r="BQ5">
-        <v>12734.27781307437</v>
+        <v>12715.59172520208</v>
       </c>
       <c r="BR5">
-        <v>13221.56329942107</v>
+        <v>13202.60252871442</v>
       </c>
       <c r="BS5">
-        <v>13594.59530682328</v>
+        <v>13575.36045774777</v>
       </c>
       <c r="BT5">
-        <v>13841.78828336959</v>
+        <v>13822.27995603118</v>
       </c>
       <c r="BU5">
-        <v>13957.98316923603</v>
+        <v>13938.20196835254</v>
       </c>
       <c r="BV5">
-        <v>13821.15327857031</v>
+        <v>13801.08845293717</v>
       </c>
       <c r="BW5">
-        <v>13687.57066188053</v>
+        <v>13667.22285210988</v>
       </c>
       <c r="BX5">
-        <v>13449.46611561307</v>
+        <v>13428.83599416931</v>
       </c>
       <c r="BY5">
-        <v>13129.43792297253</v>
+        <v>13108.52620299841</v>
       </c>
       <c r="BZ5">
-        <v>12755.57642384126</v>
+        <v>12734.38386752155</v>
       </c>
       <c r="CA5">
-        <v>12229.69819887475</v>
+        <v>12208.21124618636</v>
       </c>
       <c r="CB5">
-        <v>11844.331531278</v>
+        <v>11822.55106369375</v>
       </c>
       <c r="CC5">
-        <v>11500.50735662085</v>
+        <v>11478.43432268307</v>
       </c>
       <c r="CD5">
-        <v>11224.56195005211</v>
+        <v>11202.19736654589</v>
       </c>
       <c r="CE5">
-        <v>11036.07301824326</v>
+        <v>11013.41796753586</v>
       </c>
       <c r="CF5">
-        <v>10800.15051603775</v>
+        <v>10777.18801056639</v>
       </c>
       <c r="CG5">
-        <v>10813.07536287478</v>
+        <v>10789.80659056925</v>
       </c>
       <c r="CH5">
-        <v>10924.05425829916</v>
+        <v>10900.48043314471</v>
       </c>
       <c r="CI5">
-        <v>11122.33898427438</v>
+        <v>11098.46132039626</v>
       </c>
       <c r="CJ5">
-        <v>11392.23455779549</v>
+        <v>11368.05423753567</v>
       </c>
       <c r="CK5">
-        <v>11514.509826198</v>
+        <v>11490.0080962743</v>
       </c>
       <c r="CL5">
-        <v>11868.73667340708</v>
+        <v>11843.91454525166</v>
       </c>
       <c r="CM5">
-        <v>12233.56127234917</v>
+        <v>12208.41961144734</v>
       </c>
       <c r="CN5">
-        <v>12588.82430512854</v>
+        <v>12563.36379594665</v>
       </c>
       <c r="CO5">
-        <v>12916.44581073709</v>
+        <v>12890.6669289007</v>
       </c>
     </row>
     <row r="6" spans="1:93">
@@ -1832,241 +1832,241 @@
         <v>0.04850091554502188</v>
       </c>
       <c r="O6">
-        <v>0.04979227696163908</v>
+        <v>0.05061758547352001</v>
       </c>
       <c r="P6">
-        <v>0.05130283034443715</v>
+        <v>0.05335582012751058</v>
       </c>
       <c r="Q6">
-        <v>0.05258345601144507</v>
+        <v>0.05644494996062903</v>
       </c>
       <c r="R6">
-        <v>0.05386143460719953</v>
+        <v>0.06032917766229103</v>
       </c>
       <c r="S6">
-        <v>0.05605418178952842</v>
+        <v>0.06612446226976593</v>
       </c>
       <c r="T6">
-        <v>0.0575827202620673</v>
+        <v>0.07229665475710133</v>
       </c>
       <c r="U6">
-        <v>0.05911234875677976</v>
+        <v>0.07923335169702608</v>
       </c>
       <c r="V6">
-        <v>0.06064286145515251</v>
+        <v>0.08623370490711751</v>
       </c>
       <c r="W6">
-        <v>0.06217356780574616</v>
+        <v>0.09230868679666444</v>
       </c>
       <c r="X6">
-        <v>0.06357430830406569</v>
+        <v>0.09631087534446334</v>
       </c>
       <c r="Y6">
-        <v>0.06503974281899706</v>
+        <v>0.09774168923509834</v>
       </c>
       <c r="Z6">
-        <v>0.06650240833246185</v>
+        <v>0.09618295920579509</v>
       </c>
       <c r="AA6">
-        <v>0.06796480051939749</v>
+        <v>0.09215087396517149</v>
       </c>
       <c r="AB6">
-        <v>0.06942940369849172</v>
+        <v>0.08735491144326787</v>
       </c>
       <c r="AC6">
-        <v>0.07015285520652453</v>
+        <v>0.08261289341894995</v>
       </c>
       <c r="AD6">
-        <v>0.0716471872949304</v>
+        <v>0.0798764388387149</v>
       </c>
       <c r="AE6">
-        <v>0.07314186512866998</v>
+        <v>0.07810928155332442</v>
       </c>
       <c r="AF6">
-        <v>0.0746348302951047</v>
+        <v>0.07695502094087144</v>
       </c>
       <c r="AG6">
-        <v>0.07612909080483499</v>
+        <v>0.07615921008415608</v>
       </c>
       <c r="AH6">
-        <v>0.07753622661259327</v>
+        <v>0.07544486673405421</v>
       </c>
       <c r="AI6">
-        <v>0.0790808822729456</v>
+        <v>0.0749817226956556</v>
       </c>
       <c r="AJ6">
-        <v>0.08063487509983405</v>
+        <v>0.07459308009178484</v>
       </c>
       <c r="AK6">
-        <v>0.08220254295936927</v>
+        <v>0.07425744946384888</v>
       </c>
       <c r="AL6">
-        <v>0.08379008266666534</v>
+        <v>0.07396785370239364</v>
       </c>
       <c r="AM6">
-        <v>0.08539710432599196</v>
+        <v>0.07371122467763405</v>
       </c>
       <c r="AN6">
-        <v>0.0870128222215989</v>
+        <v>0.07348366569929021</v>
       </c>
       <c r="AO6">
-        <v>0.08865115478265342</v>
+        <v>0.07329911845892018</v>
       </c>
       <c r="AP6">
-        <v>0.09030886591753758</v>
+        <v>0.07315549994595853</v>
       </c>
       <c r="AQ6">
-        <v>0.09192280032498198</v>
+        <v>0.07299129545557109</v>
       </c>
       <c r="AR6">
-        <v>0.09353077453979464</v>
+        <v>0.07285198927997913</v>
       </c>
       <c r="AS6">
-        <v>0.0951264316425381</v>
+        <v>0.07272718449741714</v>
       </c>
       <c r="AT6">
-        <v>0.09670841744778182</v>
+        <v>0.07261693244245654</v>
       </c>
       <c r="AU6">
-        <v>0.09827608418596355</v>
+        <v>0.0725216913800584</v>
       </c>
       <c r="AV6">
-        <v>0.09989911910646368</v>
+        <v>0.07251194768434863</v>
       </c>
       <c r="AW6">
-        <v>0.101599635884965</v>
+        <v>0.07257009884728235</v>
       </c>
       <c r="AX6">
-        <v>0.1032990775551612</v>
+        <v>0.07265766619517819</v>
       </c>
       <c r="AY6">
-        <v>0.1049065684486846</v>
+        <v>0.07268381273194308</v>
       </c>
       <c r="AZ6">
-        <v>0.1064839608804894</v>
+        <v>0.07271023512737045</v>
       </c>
       <c r="BA6">
-        <v>0.1081045061660465</v>
+        <v>0.07280986695095101</v>
       </c>
       <c r="BB6">
-        <v>0.1098992116103926</v>
+        <v>0.07307452809454146</v>
       </c>
       <c r="BC6">
-        <v>0.1117103298485179</v>
+        <v>0.07338388570356874</v>
       </c>
       <c r="BD6">
-        <v>0.1135204587238926</v>
+        <v>0.07371994868831067</v>
       </c>
       <c r="BE6">
-        <v>0.1153353330181717</v>
+        <v>0.07408779607410104</v>
       </c>
       <c r="BF6">
-        <v>0.1171683285439937</v>
+        <v>0.07450009800897028</v>
       </c>
       <c r="BG6">
-        <v>0.119127800861924</v>
+        <v>0.07502632499127594</v>
       </c>
       <c r="BH6">
-        <v>0.1211203877560078</v>
+        <v>0.07561069684989977</v>
       </c>
       <c r="BI6">
-        <v>0.1231323492208876</v>
+        <v>0.07623867998222471</v>
       </c>
       <c r="BJ6">
-        <v>0.1251619524549774</v>
+        <v>0.0769077469593607</v>
       </c>
       <c r="BK6">
-        <v>0.1272059337756262</v>
+        <v>0.07761384710929575</v>
       </c>
       <c r="BL6">
-        <v>0.1293427070171435</v>
+        <v>0.07840807915861081</v>
       </c>
       <c r="BM6">
-        <v>0.1314864391556181</v>
+        <v>0.07923045013676053</v>
       </c>
       <c r="BN6">
-        <v>0.1336080895020211</v>
+        <v>0.08005119550014489</v>
       </c>
       <c r="BO6">
-        <v>0.135705132060568</v>
+        <v>0.08086710355794903</v>
       </c>
       <c r="BP6">
-        <v>0.137788551955756</v>
+        <v>0.08168851944698485</v>
       </c>
       <c r="BQ6">
-        <v>0.1400085841443585</v>
+        <v>0.08260719020242951</v>
       </c>
       <c r="BR6">
-        <v>0.1422302578422699</v>
+        <v>0.08354507064715774</v>
       </c>
       <c r="BS6">
-        <v>0.1444462848805474</v>
+        <v>0.08449445355470661</v>
       </c>
       <c r="BT6">
-        <v>0.1466534497579937</v>
+        <v>0.08545178370900157</v>
       </c>
       <c r="BU6">
-        <v>0.1488424281749761</v>
+        <v>0.08640748701206474</v>
       </c>
       <c r="BV6">
-        <v>0.1511234523548535</v>
+        <v>0.08743057677377196</v>
       </c>
       <c r="BW6">
-        <v>0.1534011580196122</v>
+        <v>0.08846662523078892</v>
       </c>
       <c r="BX6">
-        <v>0.1556961931939487</v>
+        <v>0.08953637164845363</v>
       </c>
       <c r="BY6">
-        <v>0.1580105437134926</v>
+        <v>0.09064202516275099</v>
       </c>
       <c r="BZ6">
-        <v>0.1603314946896575</v>
+        <v>0.09177123313076778</v>
       </c>
       <c r="CA6">
-        <v>0.1627796374179557</v>
+        <v>0.09300113706100557</v>
       </c>
       <c r="CB6">
-        <v>0.1652393153572825</v>
+        <v>0.09426058672761592</v>
       </c>
       <c r="CC6">
-        <v>0.1677087000043872</v>
+        <v>0.0955485290042611</v>
       </c>
       <c r="CD6">
-        <v>0.1701915100919536</v>
+        <v>0.0968695609039219</v>
       </c>
       <c r="CE6">
-        <v>0.1726896037290495</v>
+        <v>0.09822648446737089</v>
       </c>
       <c r="CF6">
-        <v>0.1753448616007373</v>
+        <v>0.09971575110307018</v>
       </c>
       <c r="CG6">
-        <v>0.1780210702442246</v>
+        <v>0.1012483510893486</v>
       </c>
       <c r="CH6">
-        <v>0.1807051139745175</v>
+        <v>0.1028119360173055</v>
       </c>
       <c r="CI6">
-        <v>0.1833901977768145</v>
+        <v>0.1044002373282036</v>
       </c>
       <c r="CJ6">
-        <v>0.186068051851213</v>
+        <v>0.1060051682763981</v>
       </c>
       <c r="CK6">
-        <v>0.1888613280869381</v>
+        <v>0.1077062006574936</v>
       </c>
       <c r="CL6">
-        <v>0.1916509703883594</v>
+        <v>0.1094263893820779</v>
       </c>
       <c r="CM6">
-        <v>0.1944299267204862</v>
+        <v>0.1111573519104077</v>
       </c>
       <c r="CN6">
-        <v>0.1972027367379321</v>
+        <v>0.1129017251168014</v>
       </c>
       <c r="CO6">
-        <v>0.199971148571629</v>
+        <v>0.1146588270481304</v>
       </c>
     </row>
     <row r="7" spans="1:93">
@@ -2109,241 +2109,241 @@
         <v>0.01266515214134519</v>
       </c>
       <c r="O7">
-        <v>0.01301076287432761</v>
+        <v>0.01307322127731554</v>
       </c>
       <c r="P7">
-        <v>0.01340939181287323</v>
+        <v>0.01356440905425252</v>
       </c>
       <c r="Q7">
-        <v>0.0137523779551066</v>
+        <v>0.01404012924138004</v>
       </c>
       <c r="R7">
-        <v>0.01409470078035466</v>
+        <v>0.01456629481425507</v>
       </c>
       <c r="S7">
-        <v>0.01465963334997082</v>
+        <v>0.01537544422084718</v>
       </c>
       <c r="T7">
-        <v>0.01506327071422519</v>
+        <v>0.01607574475476717</v>
       </c>
       <c r="U7">
-        <v>0.01546717770872626</v>
+        <v>0.01679479588085605</v>
       </c>
       <c r="V7">
-        <v>0.0158713035986277</v>
+        <v>0.01746090964113589</v>
       </c>
       <c r="W7">
-        <v>0.01627547563428573</v>
+        <v>0.01796509863384091</v>
       </c>
       <c r="X7">
-        <v>0.01664595945539944</v>
+        <v>0.0181340045559587</v>
       </c>
       <c r="Y7">
-        <v>0.01703229982866106</v>
+        <v>0.01786253312090159</v>
       </c>
       <c r="Z7">
-        <v>0.0174179478345889</v>
+        <v>0.01701981486075702</v>
       </c>
       <c r="AA7">
-        <v>0.01780352705393892</v>
+        <v>0.01571604701468052</v>
       </c>
       <c r="AB7">
-        <v>0.01818965967095491</v>
+        <v>0.01437304613107452</v>
       </c>
       <c r="AC7">
-        <v>0.01839580266272837</v>
+        <v>0.01318089887551789</v>
       </c>
       <c r="AD7">
-        <v>0.01878909699305981</v>
+        <v>0.01257309832744935</v>
       </c>
       <c r="AE7">
-        <v>0.01918246475756779</v>
+        <v>0.01226232407050963</v>
       </c>
       <c r="AF7">
-        <v>0.0195753777551741</v>
+        <v>0.01213603153186674</v>
       </c>
       <c r="AG7">
-        <v>0.01996858523837333</v>
+        <v>0.01211586528407785</v>
       </c>
       <c r="AH7">
-        <v>0.02034083769414283</v>
+        <v>0.01212728341040098</v>
       </c>
       <c r="AI7">
-        <v>0.02074637163184631</v>
+        <v>0.01220254497553734</v>
       </c>
       <c r="AJ7">
-        <v>0.0211541859724699</v>
+        <v>0.01229551557703047</v>
       </c>
       <c r="AK7">
-        <v>0.02156536124530314</v>
+        <v>0.01239907083687583</v>
       </c>
       <c r="AL7">
-        <v>0.0219814518871007</v>
+        <v>0.01251043373860369</v>
       </c>
       <c r="AM7">
-        <v>0.02240130269240214</v>
+        <v>0.01262884808962242</v>
       </c>
       <c r="AN7">
-        <v>0.02282328825277665</v>
+        <v>0.01274934950166171</v>
       </c>
       <c r="AO7">
-        <v>0.02325090118883508</v>
+        <v>0.01287518050054667</v>
       </c>
       <c r="AP7">
-        <v>0.02368335260946612</v>
+        <v>0.01300567005818997</v>
       </c>
       <c r="AQ7">
-        <v>0.02410488535099707</v>
+        <v>0.01312536035612893</v>
       </c>
       <c r="AR7">
-        <v>0.02452397233550762</v>
+        <v>0.01324387247773277</v>
       </c>
       <c r="AS7">
-        <v>0.02494005094733014</v>
+        <v>0.01336023981268642</v>
       </c>
       <c r="AT7">
-        <v>0.02535280412802769</v>
+        <v>0.0134745042324447</v>
       </c>
       <c r="AU7">
-        <v>0.02576208571015012</v>
+        <v>0.01358683123748839</v>
       </c>
       <c r="AV7">
-        <v>0.02618461919042494</v>
+        <v>0.01371420314461405</v>
       </c>
       <c r="AW7">
-        <v>0.02662793080022129</v>
+        <v>0.01384992803635592</v>
       </c>
       <c r="AX7">
-        <v>0.02707127595961324</v>
+        <v>0.01398781085962079</v>
       </c>
       <c r="AY7">
-        <v>0.02749173168214378</v>
+        <v>0.01410504616991067</v>
       </c>
       <c r="AZ7">
-        <v>0.02790472930301256</v>
+        <v>0.0142171468539782</v>
       </c>
       <c r="BA7">
-        <v>0.02832854257960614</v>
+        <v>0.01434243816316123</v>
       </c>
       <c r="BB7">
-        <v>0.02879673479006233</v>
+        <v>0.01449970360633786</v>
       </c>
       <c r="BC7">
-        <v>0.02926890177214656</v>
+        <v>0.01466328314199811</v>
       </c>
       <c r="BD7">
-        <v>0.0297407727759578</v>
+        <v>0.01482890259386068</v>
       </c>
       <c r="BE7">
-        <v>0.03021376145342317</v>
+        <v>0.01499796047650474</v>
       </c>
       <c r="BF7">
-        <v>0.0306911951137652</v>
+        <v>0.01517376053360516</v>
       </c>
       <c r="BG7">
-        <v>0.0312005726013213</v>
+        <v>0.01537110992029176</v>
       </c>
       <c r="BH7">
-        <v>0.03171803711591815</v>
+        <v>0.01557879860276869</v>
       </c>
       <c r="BI7">
-        <v>0.03224026435575475</v>
+        <v>0.01579346769923687</v>
       </c>
       <c r="BJ7">
-        <v>0.03276683376369802</v>
+        <v>0.01601466360114108</v>
       </c>
       <c r="BK7">
-        <v>0.033296943501016</v>
+        <v>0.01624155496465219</v>
       </c>
       <c r="BL7">
-        <v>0.03385002666135557</v>
+        <v>0.01648417802882049</v>
       </c>
       <c r="BM7">
-        <v>0.03440475177496848</v>
+        <v>0.01673055932594334</v>
       </c>
       <c r="BN7">
-        <v>0.03495395222176202</v>
+        <v>0.01697352469654756</v>
       </c>
       <c r="BO7">
-        <v>0.03549701026337684</v>
+        <v>0.0172124605776859</v>
       </c>
       <c r="BP7">
-        <v>0.03603668275223679</v>
+        <v>0.01745014200370047</v>
       </c>
       <c r="BQ7">
-        <v>0.03661120317496154</v>
+        <v>0.017705608068481</v>
       </c>
       <c r="BR7">
-        <v>0.03718611898100321</v>
+        <v>0.01796365069473341</v>
       </c>
       <c r="BS7">
-        <v>0.03775966829774061</v>
+        <v>0.01822258776157858</v>
       </c>
       <c r="BT7">
-        <v>0.03833105236468617</v>
+        <v>0.0184817252057638</v>
       </c>
       <c r="BU7">
-        <v>0.03889794355054255</v>
+        <v>0.01873886808691124</v>
       </c>
       <c r="BV7">
-        <v>0.03948804544322636</v>
+        <v>0.01900784953513571</v>
       </c>
       <c r="BW7">
-        <v>0.04007731338113626</v>
+        <v>0.01927884699611341</v>
       </c>
       <c r="BX7">
-        <v>0.04067095030483274</v>
+        <v>0.01955729750396547</v>
       </c>
       <c r="BY7">
-        <v>0.04126944286990106</v>
+        <v>0.01984395898728482</v>
       </c>
       <c r="BZ7">
-        <v>0.04186960320388296</v>
+        <v>0.02013595184576752</v>
       </c>
       <c r="CA7">
-        <v>0.04250194752994732</v>
+        <v>0.02044927361769897</v>
       </c>
       <c r="CB7">
-        <v>0.04313711529630727</v>
+        <v>0.02076979246347508</v>
       </c>
       <c r="CC7">
-        <v>0.04377469156276957</v>
+        <v>0.02109748892445352</v>
       </c>
       <c r="CD7">
-        <v>0.04441559585850849</v>
+        <v>0.02143368622955865</v>
       </c>
       <c r="CE7">
-        <v>0.04506028584858204</v>
+        <v>0.02177923591314608</v>
       </c>
       <c r="CF7">
-        <v>0.04574458022474161</v>
+        <v>0.02215439539957472</v>
       </c>
       <c r="CG7">
-        <v>0.04643401091960822</v>
+        <v>0.02254091996737406</v>
       </c>
       <c r="CH7">
-        <v>0.04712536238602996</v>
+        <v>0.02293580219682676</v>
       </c>
       <c r="CI7">
-        <v>0.04781694051480936</v>
+        <v>0.02333742809100893</v>
       </c>
       <c r="CJ7">
-        <v>0.04850668495057705</v>
+        <v>0.02374365670173746</v>
       </c>
       <c r="CK7">
-        <v>0.04922578729324201</v>
+        <v>0.02417072058764093</v>
       </c>
       <c r="CL7">
-        <v>0.04994388727582116</v>
+        <v>0.02460249430246328</v>
       </c>
       <c r="CM7">
-        <v>0.05065931363738468</v>
+        <v>0.02503662962245715</v>
       </c>
       <c r="CN7">
-        <v>0.05137320844710242</v>
+        <v>0.02547339939510012</v>
       </c>
       <c r="CO7">
-        <v>0.05208601550355244</v>
+        <v>0.02591221908932719</v>
       </c>
     </row>
     <row r="8" spans="1:93">
@@ -2386,241 +2386,241 @@
         <v>10696.51428263003</v>
       </c>
       <c r="O8">
-        <v>11420.87566795015</v>
+        <v>11452.00065797804</v>
       </c>
       <c r="P8">
-        <v>19353.74596515311</v>
+        <v>19420.0253210588</v>
       </c>
       <c r="Q8">
-        <v>19783.41986784446</v>
+        <v>19887.55392306357</v>
       </c>
       <c r="R8">
-        <v>20166.28959739479</v>
+        <v>20308.42345691421</v>
       </c>
       <c r="S8">
-        <v>41205.84640374249</v>
+        <v>41386.59917931129</v>
       </c>
       <c r="T8">
-        <v>41582.96245961738</v>
+        <v>41793.42222016292</v>
       </c>
       <c r="U8">
-        <v>41989.82426025729</v>
+        <v>42209.33611264333</v>
       </c>
       <c r="V8">
-        <v>42422.08560231942</v>
+        <v>42606.48474794866</v>
       </c>
       <c r="W8">
-        <v>42863.54845648786</v>
+        <v>42912.31507692012</v>
       </c>
       <c r="X8">
-        <v>41562.67321700498</v>
+        <v>41236.14840036866</v>
       </c>
       <c r="Y8">
-        <v>42011.02656535601</v>
+        <v>40789.95930798374</v>
       </c>
       <c r="Z8">
-        <v>42404.35753670702</v>
+        <v>39584.91174226524</v>
       </c>
       <c r="AA8">
-        <v>42794.38331698317</v>
+        <v>38168.59724739799</v>
       </c>
       <c r="AB8">
-        <v>43237.35414950728</v>
+        <v>37238.32712952339</v>
       </c>
       <c r="AC8">
-        <v>19684.70140964744</v>
+        <v>12807.10559200296</v>
       </c>
       <c r="AD8">
-        <v>20202.27916552848</v>
+        <v>12777.77330988666</v>
       </c>
       <c r="AE8">
-        <v>20752.3612503981</v>
+        <v>12971.50543386149</v>
       </c>
       <c r="AF8">
-        <v>21296.78992006523</v>
+        <v>13262.20207019496</v>
       </c>
       <c r="AG8">
-        <v>21921.88292234834</v>
+        <v>13686.20971295206</v>
       </c>
       <c r="AH8">
-        <v>18435.79228819154</v>
+        <v>10023.12856511843</v>
       </c>
       <c r="AI8">
-        <v>19446.96891728114</v>
+        <v>10868.17352077716</v>
       </c>
       <c r="AJ8">
-        <v>20749.34299929857</v>
+        <v>12007.79976786832</v>
       </c>
       <c r="AK8">
-        <v>22438.98273083644</v>
+        <v>13534.42576270888</v>
       </c>
       <c r="AL8">
-        <v>24650.21812235589</v>
+        <v>15580.8046636189</v>
       </c>
       <c r="AM8">
-        <v>27331.34559429431</v>
+        <v>18097.52720761464</v>
       </c>
       <c r="AN8">
-        <v>30268.40695108554</v>
+        <v>20867.97797340632</v>
       </c>
       <c r="AO8">
-        <v>33718.21934246525</v>
+        <v>24149.32138328868</v>
       </c>
       <c r="AP8">
-        <v>37574.97541336111</v>
+        <v>27836.18025499861</v>
       </c>
       <c r="AQ8">
-        <v>40489.51838760293</v>
+        <v>30579.82193129512</v>
       </c>
       <c r="AR8">
-        <v>42398.46879770538</v>
+        <v>32316.88943501927</v>
       </c>
       <c r="AS8">
-        <v>43914.81426621015</v>
+        <v>33661.06768822298</v>
       </c>
       <c r="AT8">
-        <v>44967.0542342571</v>
+        <v>34541.10205803603</v>
       </c>
       <c r="AU8">
-        <v>45509.83473166015</v>
+        <v>34911.82463875408</v>
       </c>
       <c r="AV8">
-        <v>48084.18698959186</v>
+        <v>37314.40210409539</v>
       </c>
       <c r="AW8">
-        <v>48440.92575503633</v>
+        <v>37487.18625005531</v>
       </c>
       <c r="AX8">
-        <v>48146.16998541988</v>
+        <v>37008.90184920415</v>
       </c>
       <c r="AY8">
-        <v>45890.81791622707</v>
+        <v>34570.48563109435</v>
       </c>
       <c r="AZ8">
-        <v>42891.95056105933</v>
+        <v>31389.03877727449</v>
       </c>
       <c r="BA8">
-        <v>40713.26599488613</v>
+        <v>29028.26621647475</v>
       </c>
       <c r="BB8">
-        <v>38979.80381737054</v>
+        <v>27099.76348052318</v>
       </c>
       <c r="BC8">
-        <v>37776.09574522756</v>
+        <v>25701.48442298016</v>
       </c>
       <c r="BD8">
-        <v>36645.03971327623</v>
+        <v>24376.31480664387</v>
       </c>
       <c r="BE8">
-        <v>35747.47897546682</v>
+        <v>23285.08365122649</v>
       </c>
       <c r="BF8">
-        <v>35386.73134167805</v>
+        <v>22731.09391845353</v>
       </c>
       <c r="BG8">
-        <v>35217.47413597748</v>
+        <v>22360.59188350493</v>
       </c>
       <c r="BH8">
-        <v>36056.47756928833</v>
+        <v>22998.74487397608</v>
       </c>
       <c r="BI8">
-        <v>37459.43167434479</v>
+        <v>24201.23232444765</v>
       </c>
       <c r="BJ8">
-        <v>39366.2176096928</v>
+        <v>25907.92772309493</v>
       </c>
       <c r="BK8">
-        <v>41677.73318423713</v>
+        <v>28019.724787702</v>
       </c>
       <c r="BL8">
-        <v>43939.61964707404</v>
+        <v>30078.77560628795</v>
       </c>
       <c r="BM8">
-        <v>46500.99765778851</v>
+        <v>32437.69065689903</v>
       </c>
       <c r="BN8">
-        <v>48622.39564043436</v>
+        <v>34357.00862085367</v>
       </c>
       <c r="BO8">
-        <v>50225.00192927878</v>
+        <v>35757.93444782872</v>
       </c>
       <c r="BP8">
-        <v>51511.17736152223</v>
+        <v>36842.85278231146</v>
       </c>
       <c r="BQ8">
-        <v>52379.29346665727</v>
+        <v>37501.26934516702</v>
       </c>
       <c r="BR8">
-        <v>53284.5747692136</v>
+        <v>38197.33939356535</v>
       </c>
       <c r="BS8">
-        <v>53985.54439568667</v>
+        <v>38689.6382069547</v>
       </c>
       <c r="BT8">
-        <v>54407.20771512772</v>
+        <v>38903.23469969956</v>
       </c>
       <c r="BU8">
-        <v>54353.49394122345</v>
+        <v>38642.13417872885</v>
       </c>
       <c r="BV8">
-        <v>53406.97782748131</v>
+        <v>37482.25065261933</v>
       </c>
       <c r="BW8">
-        <v>52374.49379357869</v>
+        <v>36237.26646391986</v>
       </c>
       <c r="BX8">
-        <v>51616.83805418008</v>
+        <v>35268.09759319353</v>
       </c>
       <c r="BY8">
-        <v>51191.31306395321</v>
+        <v>34632.18175815981</v>
       </c>
       <c r="BZ8">
-        <v>50857.28699190769</v>
+        <v>34089.03739420981</v>
       </c>
       <c r="CA8">
-        <v>50296.27531623916</v>
+        <v>33311.60133583464</v>
       </c>
       <c r="CB8">
-        <v>50059.54603327694</v>
+        <v>32860.05307540491</v>
       </c>
       <c r="CC8">
-        <v>50054.00182633964</v>
+        <v>32641.47676191859</v>
       </c>
       <c r="CD8">
-        <v>50377.4087468034</v>
+        <v>32753.81998020973</v>
       </c>
       <c r="CE8">
-        <v>51084.5243186032</v>
+        <v>33252.01328714998</v>
       </c>
       <c r="CF8">
-        <v>51931.00943362617</v>
+        <v>33881.65545071097</v>
       </c>
       <c r="CG8">
-        <v>53380.52540844565</v>
+        <v>35116.74268448859</v>
       </c>
       <c r="CH8">
-        <v>55068.66399058865</v>
+        <v>36592.94262230008</v>
       </c>
       <c r="CI8">
-        <v>56846.36617597041</v>
+        <v>38161.21073944227</v>
       </c>
       <c r="CJ8">
-        <v>58530.79909033517</v>
+        <v>39638.65349035139</v>
       </c>
       <c r="CK8">
-        <v>59611.37956988864</v>
+        <v>40503.42125492825</v>
       </c>
       <c r="CL8">
-        <v>60764.96399204346</v>
+        <v>41443.2562249595</v>
       </c>
       <c r="CM8">
-        <v>61707.00829792376</v>
+        <v>42173.28622357151</v>
       </c>
       <c r="CN8">
-        <v>62515.57147756108</v>
+        <v>42771.16008215637</v>
       </c>
       <c r="CO8">
-        <v>63212.78175319745</v>
+        <v>43258.53064813687</v>
       </c>
     </row>
     <row r="9" spans="1:93">
@@ -2663,241 +2663,241 @@
         <v>67.33147983942068</v>
       </c>
       <c r="O9">
-        <v>85.38508062559978</v>
+        <v>85.39023673396782</v>
       </c>
       <c r="P9">
-        <v>531.8995024340003</v>
+        <v>531.9110813034285</v>
       </c>
       <c r="Q9">
-        <v>535.360293048987</v>
+        <v>535.3797514792944</v>
       </c>
       <c r="R9">
-        <v>539.6287329452247</v>
+        <v>539.6577128557619</v>
       </c>
       <c r="S9">
-        <v>1688.014088312437</v>
+        <v>1688.054497608674</v>
       </c>
       <c r="T9">
-        <v>1694.031436051696</v>
+        <v>1694.085204796182</v>
       </c>
       <c r="U9">
-        <v>1700.902073656011</v>
+        <v>1700.970853492564</v>
       </c>
       <c r="V9">
-        <v>1708.544372409729</v>
+        <v>1708.628006335457</v>
       </c>
       <c r="W9">
-        <v>1716.829027571333</v>
+        <v>1716.91974777564</v>
       </c>
       <c r="X9">
-        <v>1650.324363395042</v>
+        <v>1650.388641641002</v>
       </c>
       <c r="Y9">
-        <v>1659.41379417608</v>
+        <v>1659.355833288297</v>
       </c>
       <c r="Z9">
-        <v>1668.718191561057</v>
+        <v>1668.393534585779</v>
       </c>
       <c r="AA9">
-        <v>1678.255753023073</v>
+        <v>1677.637001110066</v>
       </c>
       <c r="AB9">
-        <v>1688.260006532684</v>
+        <v>1687.462675706478</v>
       </c>
       <c r="AC9">
-        <v>363.8414171337799</v>
+        <v>362.9639445080832</v>
       </c>
       <c r="AD9">
-        <v>376.8165273131758</v>
+        <v>375.90305064153</v>
       </c>
       <c r="AE9">
-        <v>393.1389692122224</v>
+        <v>392.2041450495267</v>
       </c>
       <c r="AF9">
-        <v>414.6231318445582</v>
+        <v>413.6703334314716</v>
       </c>
       <c r="AG9">
-        <v>443.3980546491304</v>
+        <v>442.4268895405932</v>
       </c>
       <c r="AH9">
-        <v>229.0987739562526</v>
+        <v>228.1074236859244</v>
       </c>
       <c r="AI9">
-        <v>279.032219706546</v>
+        <v>278.019090704241</v>
       </c>
       <c r="AJ9">
-        <v>342.2158907859074</v>
+        <v>341.1795893140819</v>
       </c>
       <c r="AK9">
-        <v>419.5171426457944</v>
+        <v>418.4565895186781</v>
       </c>
       <c r="AL9">
-        <v>510.7910642021333</v>
+        <v>509.7055194863155</v>
       </c>
       <c r="AM9">
-        <v>614.697602491457</v>
+        <v>613.5862859295264</v>
       </c>
       <c r="AN9">
-        <v>728.6002317458497</v>
+        <v>727.4630208182583</v>
       </c>
       <c r="AO9">
-        <v>848.5626855491229</v>
+        <v>847.3996743807159</v>
       </c>
       <c r="AP9">
-        <v>969.4592458544297</v>
+        <v>968.2706882672893</v>
       </c>
       <c r="AQ9">
-        <v>1085.234224055816</v>
+        <v>1084.020482246912</v>
       </c>
       <c r="AR9">
-        <v>1189.340726669392</v>
+        <v>1188.101221237749</v>
       </c>
       <c r="AS9">
-        <v>1275.331623895963</v>
+        <v>1274.06683408729</v>
       </c>
       <c r="AT9">
-        <v>1337.559715827558</v>
+        <v>1336.270125725462</v>
       </c>
       <c r="AU9">
-        <v>1371.873553099852</v>
+        <v>1370.559634747088</v>
       </c>
       <c r="AV9">
-        <v>1546.547715294442</v>
+        <v>1545.209917805912</v>
       </c>
       <c r="AW9">
-        <v>1569.323676499617</v>
+        <v>1567.96030093066</v>
       </c>
       <c r="AX9">
-        <v>1516.795272718447</v>
+        <v>1515.406703320065</v>
       </c>
       <c r="AY9">
-        <v>1441.860386557441</v>
+        <v>1440.446974832651</v>
       </c>
       <c r="AZ9">
-        <v>1350.766253830423</v>
+        <v>1349.328319087622</v>
       </c>
       <c r="BA9">
-        <v>1250.69939034092</v>
+        <v>1249.23722119016</v>
       </c>
       <c r="BB9">
-        <v>1124.426242203418</v>
+        <v>1122.937714960947</v>
       </c>
       <c r="BC9">
-        <v>1028.752408213548</v>
+        <v>1027.237755370809</v>
       </c>
       <c r="BD9">
-        <v>945.4898664876248</v>
+        <v>943.9492967771381</v>
       </c>
       <c r="BE9">
-        <v>879.9891427850357</v>
+        <v>878.4228435261258</v>
       </c>
       <c r="BF9">
-        <v>835.9544911254906</v>
+        <v>834.3626304731507</v>
       </c>
       <c r="BG9">
-        <v>790.737465469638</v>
+        <v>789.1187240882218</v>
       </c>
       <c r="BH9">
-        <v>792.9648468974425</v>
+        <v>791.3193604174542</v>
       </c>
       <c r="BI9">
-        <v>816.2690939541912</v>
+        <v>814.5969847594555</v>
       </c>
       <c r="BJ9">
-        <v>857.4385403481776</v>
+        <v>855.7399192089896</v>
       </c>
       <c r="BK9">
-        <v>912.5568409682647</v>
+        <v>910.8318085325542</v>
       </c>
       <c r="BL9">
-        <v>959.1248798644027</v>
+        <v>957.3727611643636</v>
       </c>
       <c r="BM9">
-        <v>1029.82755503894</v>
+        <v>1028.048434773499</v>
       </c>
       <c r="BN9">
-        <v>1102.502608025739</v>
+        <v>1100.696564486085</v>
       </c>
       <c r="BO9">
-        <v>1173.650140869569</v>
+        <v>1171.817247024956</v>
       </c>
       <c r="BP9">
-        <v>1240.10565662127</v>
+        <v>1238.245981141529</v>
       </c>
       <c r="BQ9">
-        <v>1286.290688189296</v>
+        <v>1284.403204565832</v>
       </c>
       <c r="BR9">
-        <v>1335.51144438593</v>
+        <v>1333.596215021623</v>
       </c>
       <c r="BS9">
-        <v>1373.191445133627</v>
+        <v>1371.248531085597</v>
       </c>
       <c r="BT9">
-        <v>1398.160432663558</v>
+        <v>1396.189894548566</v>
       </c>
       <c r="BU9">
-        <v>1409.897289821784</v>
+        <v>1407.899188722441</v>
       </c>
       <c r="BV9">
-        <v>1396.076088744437</v>
+        <v>1394.049338680485</v>
       </c>
       <c r="BW9">
-        <v>1382.582895139409</v>
+        <v>1380.527560819142</v>
       </c>
       <c r="BX9">
-        <v>1358.53193086997</v>
+        <v>1356.448080219086</v>
       </c>
       <c r="BY9">
-        <v>1326.20585080527</v>
+        <v>1324.09355585839</v>
       </c>
       <c r="BZ9">
-        <v>1288.442063014233</v>
+        <v>1286.301400759718</v>
       </c>
       <c r="CA9">
-        <v>1235.323050391355</v>
+        <v>1233.152651129902</v>
       </c>
       <c r="CB9">
-        <v>1196.397124371483</v>
+        <v>1194.19707714075</v>
       </c>
       <c r="CC9">
-        <v>1161.667409759651</v>
+        <v>1159.437810371996</v>
       </c>
       <c r="CD9">
-        <v>1133.794136368869</v>
+        <v>1131.535087529858</v>
       </c>
       <c r="CE9">
-        <v>1114.754850327572</v>
+        <v>1112.466461367228</v>
       </c>
       <c r="CF9">
-        <v>1090.924294549239</v>
+        <v>1088.60484955213</v>
       </c>
       <c r="CG9">
-        <v>1092.229834633788</v>
+        <v>1089.879453592825</v>
       </c>
       <c r="CH9">
-        <v>1103.439824070592</v>
+        <v>1101.058629610547</v>
       </c>
       <c r="CI9">
-        <v>1123.468584270109</v>
+        <v>1121.056699029895</v>
       </c>
       <c r="CJ9">
-        <v>1150.730763413654</v>
+        <v>1148.288306821755</v>
       </c>
       <c r="CK9">
-        <v>1163.081800626032</v>
+        <v>1160.606878411514</v>
       </c>
       <c r="CL9">
-        <v>1198.862290243106</v>
+        <v>1196.355004570843</v>
       </c>
       <c r="CM9">
-        <v>1235.713259833217</v>
+        <v>1233.173698125961</v>
       </c>
       <c r="CN9">
-        <v>1271.598414659415</v>
+        <v>1269.026646055184</v>
       </c>
       <c r="CO9">
-        <v>1304.691496034013</v>
+        <v>1302.087568575793</v>
       </c>
     </row>
     <row r="10" spans="1:93">
@@ -2944,241 +2944,241 @@
         <v>0.611141801649207</v>
       </c>
       <c r="O10">
-        <v>0.627413761340341</v>
+        <v>0.6378131636031525</v>
       </c>
       <c r="P10">
-        <v>0.6464476765866121</v>
+        <v>0.6723166289702068</v>
       </c>
       <c r="Q10">
-        <v>0.6625843591332943</v>
+        <v>0.7112415925616222</v>
       </c>
       <c r="R10">
-        <v>0.6786876869303438</v>
+        <v>0.7601852854576048</v>
       </c>
       <c r="S10">
-        <v>0.7063176697566629</v>
+        <v>0.8332094879140384</v>
       </c>
       <c r="T10">
-        <v>0.7255782083568134</v>
+        <v>0.9109829648566414</v>
       </c>
       <c r="U10">
-        <v>0.7448524819165523</v>
+        <v>0.9983896749717297</v>
       </c>
       <c r="V10">
-        <v>0.7641378969941756</v>
+        <v>1.086598493814021</v>
       </c>
       <c r="W10">
-        <v>0.783425752210626</v>
+        <v>1.163147056562649</v>
       </c>
       <c r="X10">
-        <v>0.8010759565864871</v>
+        <v>1.213577129730467</v>
       </c>
       <c r="Y10">
-        <v>0.8195413459423386</v>
+        <v>1.23160627761605</v>
       </c>
       <c r="Z10">
-        <v>0.8379718441517848</v>
+        <v>1.211965306560385</v>
       </c>
       <c r="AA10">
-        <v>0.856398898276401</v>
+        <v>1.161158516406692</v>
       </c>
       <c r="AB10">
-        <v>0.8748538122819298</v>
+        <v>1.100726395830381</v>
       </c>
       <c r="AC10">
-        <v>0.8839697527349424</v>
+        <v>1.040974009586363</v>
       </c>
       <c r="AD10">
-        <v>0.9027992695493794</v>
+        <v>1.006492974259438</v>
       </c>
       <c r="AE10">
-        <v>0.9216331429707754</v>
+        <v>0.9842256897132621</v>
       </c>
       <c r="AF10">
-        <v>0.9404454357153827</v>
+        <v>0.9696812857089205</v>
       </c>
       <c r="AG10">
-        <v>0.959274050593841</v>
+        <v>0.9596535723084685</v>
       </c>
       <c r="AH10">
-        <v>0.9770048398594617</v>
+        <v>0.9506524003291034</v>
       </c>
       <c r="AI10">
-        <v>0.9964684650835909</v>
+        <v>0.9448164964318407</v>
       </c>
       <c r="AJ10">
-        <v>1.016049744432698</v>
+        <v>0.9399193571003842</v>
       </c>
       <c r="AK10">
-        <v>1.035803337726717</v>
+        <v>0.935690201746501</v>
       </c>
       <c r="AL10">
-        <v>1.055807328703051</v>
+        <v>0.9320411144371811</v>
       </c>
       <c r="AM10">
-        <v>1.076056804432195</v>
+        <v>0.9288074285822934</v>
       </c>
       <c r="AN10">
-        <v>1.096415858165139</v>
+        <v>0.925940043452678</v>
       </c>
       <c r="AO10">
-        <v>1.117059870794838</v>
+        <v>0.9236146330619313</v>
       </c>
       <c r="AP10">
-        <v>1.137948065547505</v>
+        <v>0.9218049501770773</v>
       </c>
       <c r="AQ10">
-        <v>1.15828464621666</v>
+        <v>0.9197358711304956</v>
       </c>
       <c r="AR10">
-        <v>1.178546124739346</v>
+        <v>0.9179805263875056</v>
       </c>
       <c r="AS10">
-        <v>1.198652399963774</v>
+        <v>0.9164079082459256</v>
       </c>
       <c r="AT10">
-        <v>1.218586408308477</v>
+        <v>0.9150186635533872</v>
       </c>
       <c r="AU10">
-        <v>1.238339987472742</v>
+        <v>0.9138185667343705</v>
       </c>
       <c r="AV10">
-        <v>1.258791240285345</v>
+        <v>0.9136957900881179</v>
       </c>
       <c r="AW10">
-        <v>1.280218812859379</v>
+        <v>0.9144285310288602</v>
       </c>
       <c r="AX10">
-        <v>1.301632838397872</v>
+        <v>0.9155319342565584</v>
       </c>
       <c r="AY10">
-        <v>1.32188822677071</v>
+        <v>0.9158613969358871</v>
       </c>
       <c r="AZ10">
-        <v>1.341764355743702</v>
+        <v>0.9161943356065065</v>
       </c>
       <c r="BA10">
-        <v>1.362184237602429</v>
+        <v>0.9174497587563665</v>
       </c>
       <c r="BB10">
-        <v>1.384798646142185</v>
+        <v>0.9207846543207668</v>
       </c>
       <c r="BC10">
-        <v>1.407619866125552</v>
+        <v>0.9246827532413799</v>
       </c>
       <c r="BD10">
-        <v>1.430428619520874</v>
+        <v>0.9289173565608188</v>
       </c>
       <c r="BE10">
-        <v>1.453297168155651</v>
+        <v>0.9335524631677294</v>
       </c>
       <c r="BF10">
-        <v>1.47639405561597</v>
+        <v>0.9387477248337801</v>
       </c>
       <c r="BG10">
-        <v>1.501084629581527</v>
+        <v>0.9453785131896033</v>
       </c>
       <c r="BH10">
-        <v>1.526192467870943</v>
+        <v>0.9527419632708891</v>
       </c>
       <c r="BI10">
-        <v>1.551544437842604</v>
+        <v>0.9606549426153336</v>
       </c>
       <c r="BJ10">
-        <v>1.577118705115211</v>
+        <v>0.9690856040417417</v>
       </c>
       <c r="BK10">
-        <v>1.602874145250752</v>
+        <v>0.9779829065550416</v>
       </c>
       <c r="BL10">
-        <v>1.629798821493708</v>
+        <v>0.9879907259970349</v>
       </c>
       <c r="BM10">
-        <v>1.656811184180854</v>
+        <v>0.9983531135017391</v>
       </c>
       <c r="BN10">
-        <v>1.683545302508304</v>
+        <v>1.008695017245975</v>
       </c>
       <c r="BO10">
-        <v>1.709969347352897</v>
+        <v>1.018975967921302</v>
       </c>
       <c r="BP10">
-        <v>1.736221738138283</v>
+        <v>1.029326320707171</v>
       </c>
       <c r="BQ10">
-        <v>1.764195529070177</v>
+        <v>1.040902145499256</v>
       </c>
       <c r="BR10">
-        <v>1.792190004043704</v>
+        <v>1.05272002436364</v>
       </c>
       <c r="BS10">
-        <v>1.820113327582184</v>
+        <v>1.064682841437387</v>
       </c>
       <c r="BT10">
-        <v>1.847924982363984</v>
+        <v>1.076745798779416</v>
       </c>
       <c r="BU10">
-        <v>1.875507476395134</v>
+        <v>1.088788256780729</v>
       </c>
       <c r="BV10">
-        <v>1.904249804477614</v>
+        <v>1.101679826211789</v>
       </c>
       <c r="BW10">
-        <v>1.932950317198765</v>
+        <v>1.1147346832903</v>
       </c>
       <c r="BX10">
-        <v>1.961869192554638</v>
+        <v>1.128214155701342</v>
       </c>
       <c r="BY10">
-        <v>1.991031453313383</v>
+        <v>1.14214607993688</v>
       </c>
       <c r="BZ10">
-        <v>2.020276883944403</v>
+        <v>1.15637480498785</v>
       </c>
       <c r="CA10">
-        <v>2.051125010023134</v>
+        <v>1.171872361999598</v>
       </c>
       <c r="CB10">
-        <v>2.082118486959079</v>
+        <v>1.187742213726917</v>
       </c>
       <c r="CC10">
-        <v>2.113234274470256</v>
+        <v>1.203971090120776</v>
       </c>
       <c r="CD10">
-        <v>2.144519230909061</v>
+        <v>1.220616916413381</v>
       </c>
       <c r="CE10">
-        <v>2.175996769609254</v>
+        <v>1.237715000067011</v>
       </c>
       <c r="CF10">
-        <v>2.20945467573971</v>
+        <v>1.256480689016377</v>
       </c>
       <c r="CG10">
-        <v>2.243176574668647</v>
+        <v>1.275792405224133</v>
       </c>
       <c r="CH10">
-        <v>2.276997200580621</v>
+        <v>1.295494551032412</v>
       </c>
       <c r="CI10">
-        <v>2.310830932048876</v>
+        <v>1.315508138689393</v>
       </c>
       <c r="CJ10">
-        <v>2.344573564434081</v>
+        <v>1.335731270153615</v>
       </c>
       <c r="CK10">
-        <v>2.379770588078314</v>
+        <v>1.357165339642084</v>
       </c>
       <c r="CL10">
-        <v>2.414921821882647</v>
+        <v>1.378840791012548</v>
       </c>
       <c r="CM10">
-        <v>2.449938405805562</v>
+        <v>1.400651999033327</v>
       </c>
       <c r="CN10">
-        <v>2.484877542328043</v>
+        <v>1.42263218996631</v>
       </c>
       <c r="CO10">
-        <v>2.519761258990714</v>
+        <v>1.444772770776519</v>
       </c>
     </row>
     <row r="11" spans="1:93">
@@ -3221,241 +3221,241 @@
         <v>0.1595888203520203</v>
       </c>
       <c r="O11">
-        <v>0.1639437312573229</v>
+        <v>0.1647307461105734</v>
       </c>
       <c r="P11">
-        <v>0.1689667046374055</v>
+        <v>0.1709200186134127</v>
       </c>
       <c r="Q11">
-        <v>0.1732885440614601</v>
+        <v>0.1769143898324906</v>
       </c>
       <c r="R11">
-        <v>0.1776020252775733</v>
+        <v>0.1835444043911671</v>
       </c>
       <c r="S11">
-        <v>0.1847205281867616</v>
+        <v>0.1937401918436545</v>
       </c>
       <c r="T11">
-        <v>0.1898066108561573</v>
+        <v>0.2025644155760598</v>
       </c>
       <c r="U11">
-        <v>0.1948960910349171</v>
+        <v>0.2116249084706306</v>
       </c>
       <c r="V11">
-        <v>0.1999883294323179</v>
+        <v>0.2200183575217699</v>
       </c>
       <c r="W11">
-        <v>0.2050811492950479</v>
+        <v>0.2263714534563697</v>
       </c>
       <c r="X11">
-        <v>0.2097494766322326</v>
+        <v>0.2284997734765653</v>
       </c>
       <c r="Y11">
-        <v>0.2146176064213655</v>
+        <v>0.2250790639898939</v>
       </c>
       <c r="Z11">
-        <v>0.2194770119500382</v>
+        <v>0.2144602880348428</v>
       </c>
       <c r="AA11">
-        <v>0.2243355507249058</v>
+        <v>0.1980319995905998</v>
       </c>
       <c r="AB11">
-        <v>0.2292010626556983</v>
+        <v>0.1811093503910902</v>
       </c>
       <c r="AC11">
-        <v>0.2317985929904164</v>
+        <v>0.1660875510414322</v>
       </c>
       <c r="AD11">
-        <v>0.2367543469780717</v>
+        <v>0.1584288848530551</v>
       </c>
       <c r="AE11">
-        <v>0.2417110262821761</v>
+        <v>0.1545129352847211</v>
       </c>
       <c r="AF11">
-        <v>0.2466619752395336</v>
+        <v>0.1529215704881241</v>
       </c>
       <c r="AG11">
-        <v>0.2516166348991284</v>
+        <v>0.1526674631817422</v>
       </c>
       <c r="AH11">
-        <v>0.2563072481366481</v>
+        <v>0.1528113386986095</v>
       </c>
       <c r="AI11">
-        <v>0.2614172288150117</v>
+        <v>0.1537596813844229</v>
       </c>
       <c r="AJ11">
-        <v>0.266555943993197</v>
+        <v>0.1549311689792122</v>
       </c>
       <c r="AK11">
-        <v>0.2717370090145294</v>
+        <v>0.1562360298743307</v>
       </c>
       <c r="AL11">
-        <v>0.2769800107521251</v>
+        <v>0.1576392719293322</v>
       </c>
       <c r="AM11">
-        <v>0.2822703928963057</v>
+        <v>0.1591313666456791</v>
       </c>
       <c r="AN11">
-        <v>0.2875876742865475</v>
+        <v>0.160649759633263</v>
       </c>
       <c r="AO11">
-        <v>0.2929758641220294</v>
+        <v>0.1622353087408979</v>
       </c>
       <c r="AP11">
-        <v>0.2984250218824612</v>
+        <v>0.1638795585959444</v>
       </c>
       <c r="AQ11">
-        <v>0.303736597472704</v>
+        <v>0.1653877310397088</v>
       </c>
       <c r="AR11">
-        <v>0.309017354998276</v>
+        <v>0.1668810577264392</v>
       </c>
       <c r="AS11">
-        <v>0.314260205150679</v>
+        <v>0.1683473587629767</v>
       </c>
       <c r="AT11">
-        <v>0.3194611527957558</v>
+        <v>0.1697871617557813</v>
       </c>
       <c r="AU11">
-        <v>0.3246183561324218</v>
+        <v>0.1712025521141868</v>
       </c>
       <c r="AV11">
-        <v>0.3299425416553231</v>
+        <v>0.1728075176272194</v>
       </c>
       <c r="AW11">
-        <v>0.3355285445762671</v>
+        <v>0.1745177359588872</v>
       </c>
       <c r="AX11">
-        <v>0.3411149702430515</v>
+        <v>0.1762551455743478</v>
       </c>
       <c r="AY11">
-        <v>0.3464129747218019</v>
+        <v>0.1777323836417604</v>
       </c>
       <c r="AZ11">
-        <v>0.3516170024655729</v>
+        <v>0.1791449222146362</v>
       </c>
       <c r="BA11">
-        <v>0.3569573142207155</v>
+        <v>0.1807236708952468</v>
       </c>
       <c r="BB11">
-        <v>0.3628568282360895</v>
+        <v>0.1827053136168345</v>
       </c>
       <c r="BC11">
-        <v>0.3688064268543332</v>
+        <v>0.1847665178438667</v>
       </c>
       <c r="BD11">
-        <v>0.3747522959616397</v>
+        <v>0.1868534262880072</v>
       </c>
       <c r="BE11">
-        <v>0.3807122484544442</v>
+        <v>0.1889836611056611</v>
       </c>
       <c r="BF11">
-        <v>0.3867282105052749</v>
+        <v>0.1911988515287501</v>
       </c>
       <c r="BG11">
-        <v>0.3931466847127488</v>
+        <v>0.1936855769519446</v>
       </c>
       <c r="BH11">
-        <v>0.3996670605074428</v>
+        <v>0.1963025839540759</v>
       </c>
       <c r="BI11">
-        <v>0.4062474496122166</v>
+        <v>0.1990075485284496</v>
       </c>
       <c r="BJ11">
-        <v>0.4128825527447564</v>
+        <v>0.2017947549242068</v>
       </c>
       <c r="BK11">
-        <v>0.4195622662366708</v>
+        <v>0.2046537276903211</v>
       </c>
       <c r="BL11">
-        <v>0.426531459194647</v>
+        <v>0.2077109297016897</v>
       </c>
       <c r="BM11">
-        <v>0.4335213417884869</v>
+        <v>0.2108154877935168</v>
       </c>
       <c r="BN11">
-        <v>0.4404416101328731</v>
+        <v>0.2138770030795858</v>
       </c>
       <c r="BO11">
-        <v>0.4472844803389931</v>
+        <v>0.2168877442838829</v>
       </c>
       <c r="BP11">
-        <v>0.4540846904677322</v>
+        <v>0.2198826785708091</v>
       </c>
       <c r="BQ11">
-        <v>0.4613240063091483</v>
+        <v>0.2231017104042449</v>
       </c>
       <c r="BR11">
-        <v>0.468568304227087</v>
+        <v>0.2263532085200651</v>
       </c>
       <c r="BS11">
-        <v>0.475795383527068</v>
+        <v>0.2296159771455072</v>
       </c>
       <c r="BT11">
-        <v>0.4829951793285025</v>
+        <v>0.2328812706504745</v>
       </c>
       <c r="BU11">
-        <v>0.4901383620245428</v>
+        <v>0.2361214314165087</v>
       </c>
       <c r="BV11">
-        <v>0.4975740141106691</v>
+        <v>0.2395107655152747</v>
       </c>
       <c r="BW11">
-        <v>0.5049991578462363</v>
+        <v>0.2429255026327738</v>
       </c>
       <c r="BX11">
-        <v>0.5124793535290699</v>
+        <v>0.2464341527917771</v>
       </c>
       <c r="BY11">
-        <v>0.5200207333232301</v>
+        <v>0.2500462663655217</v>
       </c>
       <c r="BZ11">
-        <v>0.5275831280464311</v>
+        <v>0.253725558593236</v>
       </c>
       <c r="CA11">
-        <v>0.5355510611534856</v>
+        <v>0.2576736084401786</v>
       </c>
       <c r="CB11">
-        <v>0.5435545713701615</v>
+        <v>0.2617123459087179</v>
       </c>
       <c r="CC11">
-        <v>0.5515884301910915</v>
+        <v>0.2658415258078176</v>
       </c>
       <c r="CD11">
-        <v>0.5596642242576801</v>
+        <v>0.2700778216476524</v>
       </c>
       <c r="CE11">
-        <v>0.5677877204352528</v>
+        <v>0.2744319632924818</v>
       </c>
       <c r="CF11">
-        <v>0.5764102565916345</v>
+        <v>0.2791592069303664</v>
       </c>
       <c r="CG11">
-        <v>0.5850975135689161</v>
+        <v>0.2840296576856165</v>
       </c>
       <c r="CH11">
-        <v>0.5938089734664024</v>
+        <v>0.2890054201930885</v>
       </c>
       <c r="CI11">
-        <v>0.6025232894510373</v>
+        <v>0.2940661570843666</v>
       </c>
       <c r="CJ11">
-        <v>0.6112144997594546</v>
+        <v>0.2991848910763391</v>
       </c>
       <c r="CK11">
-        <v>0.6202756380148448</v>
+        <v>0.3045661625372477</v>
       </c>
       <c r="CL11">
-        <v>0.6293241459076555</v>
+        <v>0.3100067807815848</v>
       </c>
       <c r="CM11">
-        <v>0.6383389645072632</v>
+        <v>0.3154771567247838</v>
       </c>
       <c r="CN11">
-        <v>0.6473344845978877</v>
+        <v>0.3209807284153255</v>
       </c>
       <c r="CO11">
-        <v>0.6563162983185535</v>
+        <v>0.3265101303970293</v>
       </c>
     </row>
     <row r="12" spans="1:93">
@@ -3498,241 +3498,241 @@
         <v>111974.1732744624</v>
       </c>
       <c r="O12">
-        <v>115452.4103098643</v>
+        <v>115775.1567921771</v>
       </c>
       <c r="P12">
-        <v>119324.6562454525</v>
+        <v>119996.9502101725</v>
       </c>
       <c r="Q12">
-        <v>122784.4281265843</v>
+        <v>123808.9108172527</v>
       </c>
       <c r="R12">
-        <v>126240.1253959991</v>
+        <v>127579.04826987</v>
       </c>
       <c r="S12">
-        <v>131623.58808069</v>
+        <v>133192.4664620692</v>
       </c>
       <c r="T12">
-        <v>135832.068124251</v>
+        <v>137489.5069859565</v>
       </c>
       <c r="U12">
-        <v>140042.3556429155</v>
+        <v>141655.1024073953</v>
       </c>
       <c r="V12">
-        <v>144254.1169141588</v>
+        <v>145933.1073408211</v>
       </c>
       <c r="W12">
-        <v>148466.2537629452</v>
+        <v>151260.8314125325</v>
       </c>
       <c r="X12">
-        <v>152368.6646729295</v>
+        <v>160070.7534288993</v>
       </c>
       <c r="Y12">
-        <v>156381.1991030493</v>
+        <v>178510.1445213434</v>
       </c>
       <c r="Z12">
-        <v>160389.4033762501</v>
+        <v>211739.5724106132</v>
       </c>
       <c r="AA12">
-        <v>164397.2028853823</v>
+        <v>252958.8937493336</v>
       </c>
       <c r="AB12">
-        <v>168408.5230465776</v>
+        <v>287095.7142378286</v>
       </c>
       <c r="AC12">
-        <v>171137.2157789955</v>
+        <v>307818.0553329363</v>
       </c>
       <c r="AD12">
-        <v>175230.9926983727</v>
+        <v>321499.6381581549</v>
       </c>
       <c r="AE12">
-        <v>179325.6873090354</v>
+        <v>331558.4725629959</v>
       </c>
       <c r="AF12">
-        <v>183418.2849486307</v>
+        <v>340531.057390958</v>
       </c>
       <c r="AG12">
-        <v>187513.7365423425</v>
+        <v>349357.4702644196</v>
       </c>
       <c r="AH12">
-        <v>191508.9395169087</v>
+        <v>358547.6385135017</v>
       </c>
       <c r="AI12">
-        <v>195750.745300484</v>
+        <v>368060.8137285004</v>
       </c>
       <c r="AJ12">
-        <v>200008.7150459387</v>
+        <v>377599.8306118583</v>
       </c>
       <c r="AK12">
-        <v>204289.7654112253</v>
+        <v>387106.2012842533</v>
       </c>
       <c r="AL12">
-        <v>208603.6074601724</v>
+        <v>396541.6994378542</v>
       </c>
       <c r="AM12">
-        <v>212958.1532959939</v>
+        <v>406355.6791239693</v>
       </c>
       <c r="AN12">
-        <v>217327.4865665815</v>
+        <v>416034.5995841041</v>
       </c>
       <c r="AO12">
-        <v>221733.0499518623</v>
+        <v>425599.3824482274</v>
       </c>
       <c r="AP12">
-        <v>226169.1833551079</v>
+        <v>435051.6072668456</v>
       </c>
       <c r="AQ12">
-        <v>230535.9218461523</v>
+        <v>444303.069022945</v>
       </c>
       <c r="AR12">
-        <v>234915.5838554571</v>
+        <v>454129.0115035818</v>
       </c>
       <c r="AS12">
-        <v>239273.8592437222</v>
+        <v>463827.7629709039</v>
       </c>
       <c r="AT12">
-        <v>243607.9893570502</v>
+        <v>473410.7363020436</v>
       </c>
       <c r="AU12">
-        <v>247916.4928387501</v>
+        <v>482889.3465560324</v>
       </c>
       <c r="AV12">
-        <v>252328.6048511956</v>
+        <v>492404.2059603151</v>
       </c>
       <c r="AW12">
-        <v>256991.1525632689</v>
+        <v>502850.5859058485</v>
       </c>
       <c r="AX12">
-        <v>261642.8150891791</v>
+        <v>513236.2317570541</v>
       </c>
       <c r="AY12">
-        <v>266147.9483131976</v>
+        <v>523432.4453215136</v>
       </c>
       <c r="AZ12">
-        <v>270603.9567039944</v>
+        <v>533542.4272410694</v>
       </c>
       <c r="BA12">
-        <v>275126.8084671966</v>
+        <v>543686.9629144339</v>
       </c>
       <c r="BB12">
-        <v>280065.1845249437</v>
+        <v>555033.8920695374</v>
       </c>
       <c r="BC12">
-        <v>285032.8540824383</v>
+        <v>566384.1867442094</v>
       </c>
       <c r="BD12">
-        <v>290000.3574350189</v>
+        <v>577711.1515204792</v>
       </c>
       <c r="BE12">
-        <v>294977.3045673316</v>
+        <v>589026.7345654179</v>
       </c>
       <c r="BF12">
-        <v>299985.1395044182</v>
+        <v>600354.3884315239</v>
       </c>
       <c r="BG12">
-        <v>305336.0255216068</v>
+        <v>612760.7632353936</v>
       </c>
       <c r="BH12">
-        <v>310744.3330740568</v>
+        <v>625208.1023923402</v>
       </c>
       <c r="BI12">
-        <v>316185.4469960327</v>
+        <v>637673.2454609443</v>
       </c>
       <c r="BJ12">
-        <v>321656.2841717962</v>
+        <v>650154.5110022534</v>
       </c>
       <c r="BK12">
-        <v>327151.2800360605</v>
+        <v>662647.7355467805</v>
       </c>
       <c r="BL12">
-        <v>332906.6223206348</v>
+        <v>676102.7950361335</v>
       </c>
       <c r="BM12">
-        <v>338675.6481818118</v>
+        <v>689561.2713366449</v>
       </c>
       <c r="BN12">
-        <v>344410.1776695097</v>
+        <v>702976.6633524111</v>
       </c>
       <c r="BO12">
-        <v>350105.848727515</v>
+        <v>716346.4824114358</v>
       </c>
       <c r="BP12">
-        <v>355779.5783283886</v>
+        <v>729689.7650393469</v>
       </c>
       <c r="BQ12">
-        <v>361848.6027676911</v>
+        <v>744161.8693417878</v>
       </c>
       <c r="BR12">
-        <v>367920.5807923921</v>
+        <v>758636.4716359614</v>
       </c>
       <c r="BS12">
-        <v>373982.3922634594</v>
+        <v>773103.6541409816</v>
       </c>
       <c r="BT12">
-        <v>380028.8507544685</v>
+        <v>787561.9174069632</v>
       </c>
       <c r="BU12">
-        <v>386045.2384686437</v>
+        <v>802000.7765758759</v>
       </c>
       <c r="BV12">
-        <v>392356.9803556202</v>
+        <v>817558.7630259955</v>
       </c>
       <c r="BW12">
-        <v>398663.5760362759</v>
+        <v>833131.3208096183</v>
       </c>
       <c r="BX12">
-        <v>404996.2412823827</v>
+        <v>848755.8379009471</v>
       </c>
       <c r="BY12">
-        <v>411358.3551425575</v>
+        <v>864442.5697630867</v>
       </c>
       <c r="BZ12">
-        <v>417730.2448696592</v>
+        <v>880179.403038366</v>
       </c>
       <c r="CA12">
-        <v>424457.5953410152</v>
+        <v>897117.1929848783</v>
       </c>
       <c r="CB12">
-        <v>431204.7036638883</v>
+        <v>914130.6648639399</v>
       </c>
       <c r="CC12">
-        <v>437967.5429932983</v>
+        <v>931224.7268840448</v>
       </c>
       <c r="CD12">
-        <v>444752.2552745094</v>
+        <v>948414.4243733707</v>
       </c>
       <c r="CE12">
-        <v>451561.9799060997</v>
+        <v>965711.3555633537</v>
       </c>
       <c r="CF12">
-        <v>458787.2011762444</v>
+        <v>984447.5640154288</v>
       </c>
       <c r="CG12">
-        <v>466048.2021766736</v>
+        <v>1003313.860263786</v>
       </c>
       <c r="CH12">
-        <v>473322.6242554265</v>
+        <v>1022291.53788139</v>
       </c>
       <c r="CI12">
-        <v>480599.6646511926</v>
+        <v>1041370.451365216</v>
       </c>
       <c r="CJ12">
-        <v>487866.1453240333</v>
+        <v>1060534.423567381</v>
       </c>
       <c r="CK12">
-        <v>495463.8965238197</v>
+        <v>1080966.702821683</v>
       </c>
       <c r="CL12">
-        <v>503058.6034842647</v>
+        <v>1101471.845391811</v>
       </c>
       <c r="CM12">
-        <v>510636.6287074602</v>
+        <v>1122020.221374509</v>
       </c>
       <c r="CN12">
-        <v>518204.8818715559</v>
+        <v>1142598.775055214</v>
       </c>
       <c r="CO12">
-        <v>525765.9073411186</v>
+        <v>1163186.92972708</v>
       </c>
     </row>
     <row r="13" spans="1:93">
@@ -3775,241 +3775,241 @@
         <v>60.59833185548011</v>
       </c>
       <c r="O13">
-        <v>76.84657256304178</v>
+        <v>76.85121306057292</v>
       </c>
       <c r="P13">
-        <v>478.7095521906129</v>
+        <v>478.7199731730979</v>
       </c>
       <c r="Q13">
-        <v>481.8242637441003</v>
+        <v>481.8417763313777</v>
       </c>
       <c r="R13">
-        <v>485.6658596507141</v>
+        <v>485.6919415701982</v>
       </c>
       <c r="S13">
-        <v>1519.212679481232</v>
+        <v>1519.249047847844</v>
       </c>
       <c r="T13">
-        <v>1524.628292446565</v>
+        <v>1524.676684316603</v>
       </c>
       <c r="U13">
-        <v>1530.811866290451</v>
+        <v>1530.873768143347</v>
       </c>
       <c r="V13">
-        <v>1537.689935168796</v>
+        <v>1537.765205701951</v>
       </c>
       <c r="W13">
-        <v>1545.146124814238</v>
+        <v>1545.227772998114</v>
       </c>
       <c r="X13">
-        <v>1485.291927055574</v>
+        <v>1485.34977747694</v>
       </c>
       <c r="Y13">
-        <v>1493.47241475851</v>
+        <v>1493.420249959505</v>
       </c>
       <c r="Z13">
-        <v>1501.846372404988</v>
+        <v>1501.554181127238</v>
       </c>
       <c r="AA13">
-        <v>1510.430177720803</v>
+        <v>1509.873300999098</v>
       </c>
       <c r="AB13">
-        <v>1519.434005879454</v>
+        <v>1518.716408135868</v>
       </c>
       <c r="AC13">
-        <v>327.45727542041</v>
+        <v>326.6675500572827</v>
       </c>
       <c r="AD13">
-        <v>339.134874581866</v>
+        <v>338.3127455773856</v>
       </c>
       <c r="AE13">
-        <v>353.8250722910087</v>
+        <v>352.9837305445824</v>
       </c>
       <c r="AF13">
-        <v>373.1608186601114</v>
+        <v>372.3033000883338</v>
       </c>
       <c r="AG13">
-        <v>399.0582491842268</v>
+        <v>398.1842005865435</v>
       </c>
       <c r="AH13">
-        <v>206.1888965606323</v>
+        <v>205.2966813173369</v>
       </c>
       <c r="AI13">
-        <v>251.1289977358975</v>
+        <v>250.2171816338229</v>
       </c>
       <c r="AJ13">
-        <v>307.9943017073243</v>
+        <v>307.0616303826813</v>
       </c>
       <c r="AK13">
-        <v>377.5654283812239</v>
+        <v>376.6109305668188</v>
       </c>
       <c r="AL13">
-        <v>459.7119577819307</v>
+        <v>458.7349675376946</v>
       </c>
       <c r="AM13">
-        <v>553.2278422423253</v>
+        <v>552.2276573365859</v>
       </c>
       <c r="AN13">
-        <v>655.7402085712799</v>
+        <v>654.716718736448</v>
       </c>
       <c r="AO13">
-        <v>763.7064169942289</v>
+        <v>762.6597069426628</v>
       </c>
       <c r="AP13">
-        <v>872.5133212690073</v>
+        <v>871.4436194405812</v>
       </c>
       <c r="AQ13">
-        <v>976.7108016502586</v>
+        <v>975.6184340222436</v>
       </c>
       <c r="AR13">
-        <v>1070.406654002478</v>
+        <v>1069.291099114</v>
       </c>
       <c r="AS13">
-        <v>1147.798461506394</v>
+        <v>1146.660150678589</v>
       </c>
       <c r="AT13">
-        <v>1203.803744244831</v>
+        <v>1202.643113152944</v>
       </c>
       <c r="AU13">
-        <v>1234.686197789895</v>
+        <v>1233.503671272409</v>
       </c>
       <c r="AV13">
-        <v>1391.892943765032</v>
+        <v>1390.688926025353</v>
       </c>
       <c r="AW13">
-        <v>1412.391308849689</v>
+        <v>1411.164270837629</v>
       </c>
       <c r="AX13">
-        <v>1365.115745446633</v>
+        <v>1363.866032988092</v>
       </c>
       <c r="AY13">
-        <v>1297.674347901727</v>
+        <v>1296.402277349417</v>
       </c>
       <c r="AZ13">
-        <v>1215.68962844741</v>
+        <v>1214.395487178888</v>
       </c>
       <c r="BA13">
-        <v>1125.629451306855</v>
+        <v>1124.313499071171</v>
       </c>
       <c r="BB13">
-        <v>1011.9836179831</v>
+        <v>1010.643943464877</v>
       </c>
       <c r="BC13">
-        <v>925.8771673922155</v>
+        <v>924.5139798337515</v>
       </c>
       <c r="BD13">
-        <v>850.940879838882</v>
+        <v>849.5543670994448</v>
       </c>
       <c r="BE13">
-        <v>791.9902285065514</v>
+        <v>790.5805591735325</v>
       </c>
       <c r="BF13">
-        <v>752.35904201296</v>
+        <v>750.9263674258534</v>
       </c>
       <c r="BG13">
-        <v>711.6637189226927</v>
+        <v>710.2068516794168</v>
       </c>
       <c r="BH13">
-        <v>713.6683622077155</v>
+        <v>712.1874243757261</v>
       </c>
       <c r="BI13">
-        <v>734.6421845587885</v>
+        <v>733.1372862835273</v>
       </c>
       <c r="BJ13">
-        <v>771.6946863133778</v>
+        <v>770.1659272881087</v>
       </c>
       <c r="BK13">
-        <v>821.3011568714571</v>
+        <v>819.7486276793185</v>
       </c>
       <c r="BL13">
-        <v>863.2123918779835</v>
+        <v>861.635485047948</v>
       </c>
       <c r="BM13">
-        <v>926.8447995350689</v>
+        <v>925.2435912961714</v>
       </c>
       <c r="BN13">
-        <v>992.2523472231884</v>
+        <v>990.6269080374996</v>
       </c>
       <c r="BO13">
-        <v>1056.285126782639</v>
+        <v>1054.635522322486</v>
       </c>
       <c r="BP13">
-        <v>1116.095090959169</v>
+        <v>1114.421383027403</v>
       </c>
       <c r="BQ13">
-        <v>1157.661619370392</v>
+        <v>1155.962884109277</v>
       </c>
       <c r="BR13">
-        <v>1201.960299947367</v>
+        <v>1200.23659351949</v>
       </c>
       <c r="BS13">
-        <v>1235.872300620294</v>
+        <v>1234.123677977066</v>
       </c>
       <c r="BT13">
-        <v>1258.344389397232</v>
+        <v>1256.57090509374</v>
       </c>
       <c r="BU13">
-        <v>1268.907560839635</v>
+        <v>1267.109269850227</v>
       </c>
       <c r="BV13">
-        <v>1256.468479870024</v>
+        <v>1254.644404812466</v>
       </c>
       <c r="BW13">
-        <v>1244.324605625499</v>
+        <v>1242.474804737258</v>
       </c>
       <c r="BX13">
-        <v>1222.678737783001</v>
+        <v>1220.803272197207</v>
       </c>
       <c r="BY13">
-        <v>1193.585265724769</v>
+        <v>1191.68420027258</v>
       </c>
       <c r="BZ13">
-        <v>1159.597856712836</v>
+        <v>1157.671260683774</v>
       </c>
       <c r="CA13">
-        <v>1111.790745352247</v>
+        <v>1109.837386016938</v>
       </c>
       <c r="CB13">
-        <v>1076.757411934362</v>
+        <v>1074.777369426701</v>
       </c>
       <c r="CC13">
-        <v>1045.500668783711</v>
+        <v>1043.494029334822</v>
       </c>
       <c r="CD13">
-        <v>1020.414722732006</v>
+        <v>1018.381578776896</v>
       </c>
       <c r="CE13">
-        <v>1003.279365294839</v>
+        <v>1001.219815230529</v>
       </c>
       <c r="CF13">
-        <v>981.8318650943381</v>
+        <v>979.7443645969413</v>
       </c>
       <c r="CG13">
-        <v>983.0068511704308</v>
+        <v>980.8915082335658</v>
       </c>
       <c r="CH13">
-        <v>993.0958416635573</v>
+        <v>990.952766649516</v>
       </c>
       <c r="CI13">
-        <v>1011.121725843122</v>
+        <v>1008.951029126929</v>
       </c>
       <c r="CJ13">
-        <v>1035.657687072314</v>
+        <v>1033.459476139603</v>
       </c>
       <c r="CK13">
-        <v>1046.773620563453</v>
+        <v>1044.546190570387</v>
       </c>
       <c r="CL13">
-        <v>1078.976061218822</v>
+        <v>1076.719504113784</v>
       </c>
       <c r="CM13">
-        <v>1112.141933849921</v>
+        <v>1109.856328313391</v>
       </c>
       <c r="CN13">
-        <v>1144.438573193501</v>
+        <v>1142.123981449692</v>
       </c>
       <c r="CO13">
-        <v>1174.22234643064</v>
+        <v>1171.878811718242</v>
       </c>
     </row>
     <row r="14" spans="1:93">
@@ -4056,241 +4056,241 @@
         <v>0.09700183109004379</v>
       </c>
       <c r="O14">
-        <v>0.09958455392327817</v>
+        <v>0.10123517094704</v>
       </c>
       <c r="P14">
-        <v>0.1026056606888743</v>
+        <v>0.1067116402550212</v>
       </c>
       <c r="Q14">
-        <v>0.1051669120228902</v>
+        <v>0.1128898999212581</v>
       </c>
       <c r="R14">
-        <v>0.1077228692143991</v>
+        <v>0.1206583553245821</v>
       </c>
       <c r="S14">
-        <v>0.1121083635790569</v>
+        <v>0.1322489245395319</v>
       </c>
       <c r="T14">
-        <v>0.1151654405241346</v>
+        <v>0.1445933095142027</v>
       </c>
       <c r="U14">
-        <v>0.1182246975135595</v>
+        <v>0.1584667033940522</v>
       </c>
       <c r="V14">
-        <v>0.121285722910305</v>
+        <v>0.172467409814235</v>
       </c>
       <c r="W14">
-        <v>0.1243471356114924</v>
+        <v>0.1846173735933289</v>
       </c>
       <c r="X14">
-        <v>0.1271486166081314</v>
+        <v>0.1926217506889267</v>
       </c>
       <c r="Y14">
-        <v>0.1300794856379942</v>
+        <v>0.1954833784701967</v>
       </c>
       <c r="Z14">
-        <v>0.1330048166649237</v>
+        <v>0.1923659184115902</v>
       </c>
       <c r="AA14">
-        <v>0.135929601038795</v>
+        <v>0.184301747930343</v>
       </c>
       <c r="AB14">
-        <v>0.1388588073969835</v>
+        <v>0.1747098228865358</v>
       </c>
       <c r="AC14">
-        <v>0.1403057104130491</v>
+        <v>0.1652257868378999</v>
       </c>
       <c r="AD14">
-        <v>0.1432943745898608</v>
+        <v>0.1597528776774298</v>
       </c>
       <c r="AE14">
-        <v>0.14628373025734</v>
+        <v>0.1562185631066489</v>
       </c>
       <c r="AF14">
-        <v>0.1492696605902095</v>
+        <v>0.1539100418817429</v>
       </c>
       <c r="AG14">
-        <v>0.1522581816096701</v>
+        <v>0.1523184201683122</v>
       </c>
       <c r="AH14">
-        <v>0.1550724532251865</v>
+        <v>0.1508897334681085</v>
       </c>
       <c r="AI14">
-        <v>0.1581617645458913</v>
+        <v>0.1499634453913113</v>
       </c>
       <c r="AJ14">
-        <v>0.1612697501996681</v>
+        <v>0.1491861601835697</v>
       </c>
       <c r="AK14">
-        <v>0.1644050859187386</v>
+        <v>0.1485148989276978</v>
       </c>
       <c r="AL14">
-        <v>0.1675801653333307</v>
+        <v>0.1479357074047873</v>
       </c>
       <c r="AM14">
-        <v>0.1707942086519839</v>
+        <v>0.1474224493552682</v>
       </c>
       <c r="AN14">
-        <v>0.1740256444431978</v>
+        <v>0.1469673313985805</v>
       </c>
       <c r="AO14">
-        <v>0.1773023095653069</v>
+        <v>0.1465982369178405</v>
       </c>
       <c r="AP14">
-        <v>0.1806177318350752</v>
+        <v>0.1463109998919171</v>
       </c>
       <c r="AQ14">
-        <v>0.183845600649964</v>
+        <v>0.1459825909111422</v>
       </c>
       <c r="AR14">
-        <v>0.1870615490795893</v>
+        <v>0.1457039785599583</v>
       </c>
       <c r="AS14">
-        <v>0.1902528632850763</v>
+        <v>0.1454543689948344</v>
       </c>
       <c r="AT14">
-        <v>0.1934168348955637</v>
+        <v>0.1452338648849132</v>
       </c>
       <c r="AU14">
-        <v>0.1965521683719271</v>
+        <v>0.1450433827601169</v>
       </c>
       <c r="AV14">
-        <v>0.1997982382129274</v>
+        <v>0.1450238953686973</v>
       </c>
       <c r="AW14">
-        <v>0.2031992717699301</v>
+        <v>0.1451401976945648</v>
       </c>
       <c r="AX14">
-        <v>0.2065981551103224</v>
+        <v>0.1453153323903565</v>
       </c>
       <c r="AY14">
-        <v>0.2098131368973692</v>
+        <v>0.1453676254638862</v>
       </c>
       <c r="AZ14">
-        <v>0.212967921760979</v>
+        <v>0.145420470254741</v>
       </c>
       <c r="BA14">
-        <v>0.2162090123320931</v>
+        <v>0.1456197339019021</v>
       </c>
       <c r="BB14">
-        <v>0.2197984232207853</v>
+        <v>0.146149056189083</v>
       </c>
       <c r="BC14">
-        <v>0.2234206596970359</v>
+        <v>0.1467677714071375</v>
       </c>
       <c r="BD14">
-        <v>0.2270409174477853</v>
+        <v>0.1474398973766214</v>
       </c>
       <c r="BE14">
-        <v>0.2306706660363435</v>
+        <v>0.1481755921482022</v>
       </c>
       <c r="BF14">
-        <v>0.2343366570879875</v>
+        <v>0.1490001960179407</v>
       </c>
       <c r="BG14">
-        <v>0.238255601723848</v>
+        <v>0.150052649982552</v>
       </c>
       <c r="BH14">
-        <v>0.2422407755120157</v>
+        <v>0.1512213936997996</v>
       </c>
       <c r="BI14">
-        <v>0.2462646984417752</v>
+        <v>0.1524773599644496</v>
       </c>
       <c r="BJ14">
-        <v>0.2503239049099548</v>
+        <v>0.1538154939187215</v>
       </c>
       <c r="BK14">
-        <v>0.2544118675512524</v>
+        <v>0.1552276942185916</v>
       </c>
       <c r="BL14">
-        <v>0.258685414034287</v>
+        <v>0.1568161583172218</v>
       </c>
       <c r="BM14">
-        <v>0.2629728783112363</v>
+        <v>0.1584609002735212</v>
       </c>
       <c r="BN14">
-        <v>0.2672161790040422</v>
+        <v>0.1601023910002899</v>
       </c>
       <c r="BO14">
-        <v>0.271410264121136</v>
+        <v>0.1617342071158982</v>
       </c>
       <c r="BP14">
-        <v>0.275577103911512</v>
+        <v>0.1633770388939698</v>
       </c>
       <c r="BQ14">
-        <v>0.2800171682887171</v>
+        <v>0.1652143804048592</v>
       </c>
       <c r="BR14">
-        <v>0.2844605156845399</v>
+        <v>0.1670901412943156</v>
       </c>
       <c r="BS14">
-        <v>0.2888925697610949</v>
+        <v>0.1689889071094133</v>
       </c>
       <c r="BT14">
-        <v>0.2933068995159874</v>
+        <v>0.1709035674180033</v>
       </c>
       <c r="BU14">
-        <v>0.2976848563499523</v>
+        <v>0.1728149740241297</v>
       </c>
       <c r="BV14">
-        <v>0.302246904709707</v>
+        <v>0.1748611535475441</v>
       </c>
       <c r="BW14">
-        <v>0.3068023160392245</v>
+        <v>0.176933250461578</v>
       </c>
       <c r="BX14">
-        <v>0.3113923863878973</v>
+        <v>0.1790727432969074</v>
       </c>
       <c r="BY14">
-        <v>0.3160210874269853</v>
+        <v>0.1812840503255022</v>
       </c>
       <c r="BZ14">
-        <v>0.320662989379315</v>
+        <v>0.1835424662615357</v>
       </c>
       <c r="CA14">
-        <v>0.3255592748359115</v>
+        <v>0.1860022741220113</v>
       </c>
       <c r="CB14">
-        <v>0.3304786307145652</v>
+        <v>0.1885211734552321</v>
       </c>
       <c r="CC14">
-        <v>0.3354174000087745</v>
+        <v>0.1910970580085223</v>
       </c>
       <c r="CD14">
-        <v>0.3403830201839072</v>
+        <v>0.1937391218078439</v>
       </c>
       <c r="CE14">
-        <v>0.3453792074580991</v>
+        <v>0.196452968934742</v>
       </c>
       <c r="CF14">
-        <v>0.3506897232014746</v>
+        <v>0.1994315022061405</v>
       </c>
       <c r="CG14">
-        <v>0.3560421404884495</v>
+        <v>0.2024967021786974</v>
       </c>
       <c r="CH14">
-        <v>0.361410227949035</v>
+        <v>0.2056238720346112</v>
       </c>
       <c r="CI14">
-        <v>0.3667803955536291</v>
+        <v>0.2088004746564075</v>
       </c>
       <c r="CJ14">
-        <v>0.3721361037024261</v>
+        <v>0.2120103365527964</v>
       </c>
       <c r="CK14">
-        <v>0.3777226561738762</v>
+        <v>0.2154124013149874</v>
       </c>
       <c r="CL14">
-        <v>0.3833019407767189</v>
+        <v>0.218852778764156</v>
       </c>
       <c r="CM14">
-        <v>0.3888598534409725</v>
+        <v>0.2223147038208156</v>
       </c>
       <c r="CN14">
-        <v>0.3944054734758642</v>
+        <v>0.225803450233603</v>
       </c>
       <c r="CO14">
-        <v>0.3999422971432581</v>
+        <v>0.229317654096261</v>
       </c>
     </row>
     <row r="15" spans="1:93">
@@ -4333,241 +4333,241 @@
         <v>0.02533030428269038</v>
       </c>
       <c r="O15">
-        <v>0.02602152574865522</v>
+        <v>0.02614644255463108</v>
       </c>
       <c r="P15">
-        <v>0.02681878362574647</v>
+        <v>0.02712881810850505</v>
       </c>
       <c r="Q15">
-        <v>0.02750475591021321</v>
+        <v>0.02808025848276007</v>
       </c>
       <c r="R15">
-        <v>0.02818940156070932</v>
+        <v>0.02913258962851015</v>
       </c>
       <c r="S15">
-        <v>0.02931926669994164</v>
+        <v>0.03075088844169436</v>
       </c>
       <c r="T15">
-        <v>0.03012654142845039</v>
+        <v>0.03215148950953434</v>
       </c>
       <c r="U15">
-        <v>0.03093435541745252</v>
+        <v>0.03358959176171211</v>
       </c>
       <c r="V15">
-        <v>0.0317426071972554</v>
+        <v>0.03492181928227178</v>
       </c>
       <c r="W15">
-        <v>0.03255095126857145</v>
+        <v>0.03593019726768183</v>
       </c>
       <c r="X15">
-        <v>0.03329191891079888</v>
+        <v>0.03626800911191741</v>
       </c>
       <c r="Y15">
-        <v>0.03406459965732211</v>
+        <v>0.03572506624180318</v>
       </c>
       <c r="Z15">
-        <v>0.03483589566917782</v>
+        <v>0.03403962972151404</v>
       </c>
       <c r="AA15">
-        <v>0.03560705410787785</v>
+        <v>0.03143209402936104</v>
       </c>
       <c r="AB15">
-        <v>0.03637931934190981</v>
+        <v>0.02874609226214906</v>
       </c>
       <c r="AC15">
-        <v>0.03679160532545673</v>
+        <v>0.02636179775103579</v>
       </c>
       <c r="AD15">
-        <v>0.03757819398611963</v>
+        <v>0.0251461966548987</v>
       </c>
       <c r="AE15">
-        <v>0.03836492951513558</v>
+        <v>0.02452464814101928</v>
       </c>
       <c r="AF15">
-        <v>0.03915075551034819</v>
+        <v>0.02427206306373349</v>
       </c>
       <c r="AG15">
-        <v>0.03993717047674665</v>
+        <v>0.02423173056815571</v>
       </c>
       <c r="AH15">
-        <v>0.04068167538828565</v>
+        <v>0.02425456682080196</v>
       </c>
       <c r="AI15">
-        <v>0.04149274326369262</v>
+        <v>0.0244050899510747</v>
       </c>
       <c r="AJ15">
-        <v>0.0423083719449398</v>
+        <v>0.02459103115406095</v>
       </c>
       <c r="AK15">
-        <v>0.04313072249060627</v>
+        <v>0.02479814167375168</v>
       </c>
       <c r="AL15">
-        <v>0.0439629037742014</v>
+        <v>0.02502086747720739</v>
       </c>
       <c r="AM15">
-        <v>0.04480260538480429</v>
+        <v>0.02525769617924486</v>
       </c>
       <c r="AN15">
-        <v>0.0456465765055533</v>
+        <v>0.02549869900332342</v>
       </c>
       <c r="AO15">
-        <v>0.04650180237767017</v>
+        <v>0.02575036100109336</v>
       </c>
       <c r="AP15">
-        <v>0.04736670521893224</v>
+        <v>0.02601134011637996</v>
       </c>
       <c r="AQ15">
-        <v>0.04820977070199414</v>
+        <v>0.02625072071225788</v>
       </c>
       <c r="AR15">
-        <v>0.04904794467101525</v>
+        <v>0.02648774495546555</v>
       </c>
       <c r="AS15">
-        <v>0.04988010189466027</v>
+        <v>0.02672047962537285</v>
       </c>
       <c r="AT15">
-        <v>0.05070560825605539</v>
+        <v>0.02694900846488941</v>
       </c>
       <c r="AU15">
-        <v>0.05152417142030023</v>
+        <v>0.0271736624749768</v>
       </c>
       <c r="AV15">
-        <v>0.05236923838084988</v>
+        <v>0.0274284062892281</v>
       </c>
       <c r="AW15">
-        <v>0.05325586160044258</v>
+        <v>0.02769985607271185</v>
       </c>
       <c r="AX15">
-        <v>0.05414255191922649</v>
+        <v>0.02797562171924159</v>
       </c>
       <c r="AY15">
-        <v>0.05498346336428756</v>
+        <v>0.02821009233982135</v>
       </c>
       <c r="AZ15">
-        <v>0.05580945860602511</v>
+        <v>0.02843429370795641</v>
       </c>
       <c r="BA15">
-        <v>0.05665708515921229</v>
+        <v>0.02868487632632247</v>
       </c>
       <c r="BB15">
-        <v>0.05759346958012466</v>
+        <v>0.02899940721267574</v>
       </c>
       <c r="BC15">
-        <v>0.05853780354429312</v>
+        <v>0.02932656628399623</v>
       </c>
       <c r="BD15">
-        <v>0.05948154555191561</v>
+        <v>0.02965780518772137</v>
       </c>
       <c r="BE15">
-        <v>0.06042752290684635</v>
+        <v>0.02999592095300949</v>
       </c>
       <c r="BF15">
-        <v>0.06138239022753042</v>
+        <v>0.03034752106721034</v>
       </c>
       <c r="BG15">
-        <v>0.06240114520264262</v>
+        <v>0.03074221984058354</v>
       </c>
       <c r="BH15">
-        <v>0.06343607423183631</v>
+        <v>0.03115759720553741</v>
       </c>
       <c r="BI15">
-        <v>0.0644805287115095</v>
+        <v>0.03158693539847376</v>
       </c>
       <c r="BJ15">
-        <v>0.06553366752739605</v>
+        <v>0.03202932720228217</v>
       </c>
       <c r="BK15">
-        <v>0.06659388700203199</v>
+        <v>0.0324831099293044</v>
       </c>
       <c r="BL15">
-        <v>0.06770005332271115</v>
+        <v>0.032968356057641</v>
       </c>
       <c r="BM15">
-        <v>0.06880950354993698</v>
+        <v>0.0334611186518867</v>
       </c>
       <c r="BN15">
-        <v>0.06990790444352406</v>
+        <v>0.03394704939309513</v>
       </c>
       <c r="BO15">
-        <v>0.07099402052675371</v>
+        <v>0.03442492115537182</v>
       </c>
       <c r="BP15">
-        <v>0.07207336550447356</v>
+        <v>0.03490028400740095</v>
       </c>
       <c r="BQ15">
-        <v>0.07322240634992311</v>
+        <v>0.03541121613696202</v>
       </c>
       <c r="BR15">
-        <v>0.07437223796200645</v>
+        <v>0.03592730138946685</v>
       </c>
       <c r="BS15">
-        <v>0.07551933659548121</v>
+        <v>0.03644517552315718</v>
       </c>
       <c r="BT15">
-        <v>0.07666210472937235</v>
+        <v>0.03696345041152761</v>
       </c>
       <c r="BU15">
-        <v>0.07779588710108512</v>
+        <v>0.03747773617382251</v>
       </c>
       <c r="BV15">
-        <v>0.07897609088645272</v>
+        <v>0.03801569907027144</v>
       </c>
       <c r="BW15">
-        <v>0.08015462676227256</v>
+        <v>0.03855769399222685</v>
       </c>
       <c r="BX15">
-        <v>0.08134190060966548</v>
+        <v>0.03911459500793097</v>
       </c>
       <c r="BY15">
-        <v>0.08253888573980211</v>
+        <v>0.03968791797456967</v>
       </c>
       <c r="BZ15">
-        <v>0.08373920640776591</v>
+        <v>0.04027190369153507</v>
       </c>
       <c r="CA15">
-        <v>0.08500389505989464</v>
+        <v>0.04089854723539796</v>
       </c>
       <c r="CB15">
-        <v>0.08627423059261455</v>
+        <v>0.04153958492695019</v>
       </c>
       <c r="CC15">
-        <v>0.08754938312553914</v>
+        <v>0.04219497784890707</v>
       </c>
       <c r="CD15">
-        <v>0.08883119171701701</v>
+        <v>0.04286737245911732</v>
       </c>
       <c r="CE15">
-        <v>0.0901205716971641</v>
+        <v>0.04355847182629219</v>
       </c>
       <c r="CF15">
-        <v>0.09148916044948321</v>
+        <v>0.04430879079914946</v>
       </c>
       <c r="CG15">
-        <v>0.09286802183921646</v>
+        <v>0.04508183993474814</v>
       </c>
       <c r="CH15">
-        <v>0.09425072477205994</v>
+        <v>0.04587160439365356</v>
       </c>
       <c r="CI15">
-        <v>0.09563388102961871</v>
+        <v>0.04667485618201787</v>
       </c>
       <c r="CJ15">
-        <v>0.09701336990115411</v>
+        <v>0.04748731340347495</v>
       </c>
       <c r="CK15">
-        <v>0.09845157458648403</v>
+        <v>0.04834144117528189</v>
       </c>
       <c r="CL15">
-        <v>0.09988777455164231</v>
+        <v>0.04920498860492659</v>
       </c>
       <c r="CM15">
-        <v>0.1013186272747694</v>
+        <v>0.05007325924491434</v>
       </c>
       <c r="CN15">
-        <v>0.1027464168942049</v>
+        <v>0.05094679879020027</v>
       </c>
       <c r="CO15">
-        <v>0.1041720310071049</v>
+        <v>0.05182443817865442</v>
       </c>
     </row>
     <row r="16" spans="1:93">
@@ -4610,241 +4610,241 @@
         <v>5527.133952353104</v>
       </c>
       <c r="O16">
-        <v>5704.506584093249</v>
+        <v>5711.906565221445</v>
       </c>
       <c r="P16">
-        <v>5909.535583124749</v>
+        <v>5917.097153946702</v>
       </c>
       <c r="Q16">
-        <v>6085.784559312469</v>
+        <v>6080.747196081911</v>
       </c>
       <c r="R16">
-        <v>6261.906929877251</v>
+        <v>6223.661785179036</v>
       </c>
       <c r="S16">
-        <v>6522.62612849988</v>
+        <v>6422.869516386649</v>
       </c>
       <c r="T16">
-        <v>6705.089928837669</v>
+        <v>6505.497494729587</v>
       </c>
       <c r="U16">
-        <v>6887.64321335525</v>
+        <v>6545.270599454999</v>
       </c>
       <c r="V16">
-        <v>7070.270829692356</v>
+        <v>6546.03115043276</v>
       </c>
       <c r="W16">
-        <v>7252.930357969119</v>
+        <v>6523.4276103794</v>
       </c>
       <c r="X16">
-        <v>7414.176059178128</v>
+        <v>6499.646343154751</v>
       </c>
       <c r="Y16">
-        <v>7581.772026815512</v>
+        <v>6589.579601028969</v>
       </c>
       <c r="Z16">
-        <v>7749.216385991712</v>
+        <v>6847.122429175222</v>
       </c>
       <c r="AA16">
-        <v>7916.652115551303</v>
+        <v>7088.414749363221</v>
       </c>
       <c r="AB16">
-        <v>8084.224498750458</v>
+        <v>7129.031673021741</v>
       </c>
       <c r="AC16">
-        <v>8158.641769025513</v>
+        <v>6965.519168414819</v>
       </c>
       <c r="AD16">
-        <v>8324.290030527007</v>
+        <v>6901.872799222826</v>
       </c>
       <c r="AE16">
-        <v>8490.069058429155</v>
+        <v>6895.955271575898</v>
       </c>
       <c r="AF16">
-        <v>8655.934120217393</v>
+        <v>6945.518916874711</v>
       </c>
       <c r="AG16">
-        <v>8822.116729314173</v>
+        <v>7033.67847633346</v>
       </c>
       <c r="AH16">
-        <v>8972.796118098457</v>
+        <v>7133.7733143325</v>
       </c>
       <c r="AI16">
-        <v>9140.644510689381</v>
+        <v>7262.246540950056</v>
       </c>
       <c r="AJ16">
-        <v>9309.468015823037</v>
+        <v>7396.048680583442</v>
       </c>
       <c r="AK16">
-        <v>9479.543084207311</v>
+        <v>7531.556225625533</v>
       </c>
       <c r="AL16">
-        <v>9651.208601232252</v>
+        <v>7667.068856843713</v>
       </c>
       <c r="AM16">
-        <v>9818.082666435381</v>
+        <v>7806.032912939614</v>
       </c>
       <c r="AN16">
-        <v>9985.783808017984</v>
+        <v>7943.046756031774</v>
       </c>
       <c r="AO16">
-        <v>10154.97684115096</v>
+        <v>8078.875330438977</v>
       </c>
       <c r="AP16">
-        <v>10325.30723963189</v>
+        <v>8213.443025838653</v>
       </c>
       <c r="AQ16">
-        <v>10492.96853719024</v>
+        <v>8343.294185263303</v>
       </c>
       <c r="AR16">
-        <v>10654.46600272587</v>
+        <v>8478.26830324671</v>
       </c>
       <c r="AS16">
-        <v>10814.66090855071</v>
+        <v>8610.602732449337</v>
       </c>
       <c r="AT16">
-        <v>10973.28964055975</v>
+        <v>8740.338026395049</v>
       </c>
       <c r="AU16">
-        <v>11130.17821613983</v>
+        <v>8867.55929450001</v>
       </c>
       <c r="AV16">
-        <v>11295.27092412493</v>
+        <v>9002.425902613741</v>
       </c>
       <c r="AW16">
-        <v>11460.96786692932</v>
+        <v>9144.326234298318</v>
       </c>
       <c r="AX16">
-        <v>11623.97282848029</v>
+        <v>9283.271142837855</v>
       </c>
       <c r="AY16">
-        <v>11781.00999098424</v>
+        <v>9416.095177673567</v>
       </c>
       <c r="AZ16">
-        <v>11935.79273088584</v>
+        <v>9546.597442152353</v>
       </c>
       <c r="BA16">
-        <v>12092.74458034684</v>
+        <v>9679.266860465554</v>
       </c>
       <c r="BB16">
-        <v>12260.21317452827</v>
+        <v>9830.460838342342</v>
       </c>
       <c r="BC16">
-        <v>12429.69105795072</v>
+        <v>9983.725271414069</v>
       </c>
       <c r="BD16">
-        <v>12599.52545970909</v>
+        <v>10137.43162857382</v>
       </c>
       <c r="BE16">
-        <v>12770.2186510645</v>
+        <v>10292.09722870596</v>
       </c>
       <c r="BF16">
-        <v>12942.65817699128</v>
+        <v>10448.61701305085</v>
       </c>
       <c r="BG16">
-        <v>13122.19247681063</v>
+        <v>10619.96713265626</v>
       </c>
       <c r="BH16">
-        <v>13305.24002524588</v>
+        <v>10794.92185710778</v>
       </c>
       <c r="BI16">
-        <v>13490.08690946362</v>
+        <v>10971.75752422077</v>
       </c>
       <c r="BJ16">
-        <v>13676.52770070748</v>
+        <v>11150.25442736047</v>
       </c>
       <c r="BK16">
-        <v>13864.24893843602</v>
+        <v>11330.0805310732</v>
       </c>
       <c r="BL16">
-        <v>14055.85009151685</v>
+        <v>11521.70728694504</v>
       </c>
       <c r="BM16">
-        <v>14248.68719891629</v>
+        <v>11714.55916960916</v>
       </c>
       <c r="BN16">
-        <v>14440.32805640073</v>
+        <v>11906.17196324193</v>
       </c>
       <c r="BO16">
-        <v>14630.5125777536</v>
+        <v>12096.24874227606</v>
       </c>
       <c r="BP16">
-        <v>14819.76341000496</v>
+        <v>12285.2700402346</v>
       </c>
       <c r="BQ16">
-        <v>15020.00360502326</v>
+        <v>12487.87895131469</v>
       </c>
       <c r="BR16">
-        <v>15220.46596676599</v>
+        <v>12690.46130334199</v>
       </c>
       <c r="BS16">
-        <v>15420.2235880168</v>
+        <v>12892.02846304489</v>
       </c>
       <c r="BT16">
-        <v>15619.05376973586</v>
+        <v>13092.28787550439</v>
       </c>
       <c r="BU16">
-        <v>15816.40650073113</v>
+        <v>13290.61073379362</v>
       </c>
       <c r="BV16">
-        <v>16018.59973832048</v>
+        <v>13500.52557178991</v>
       </c>
       <c r="BW16">
-        <v>16220.64246667857</v>
+        <v>13709.62554772257</v>
       </c>
       <c r="BX16">
-        <v>16423.32805663961</v>
+        <v>13918.59395908625</v>
       </c>
       <c r="BY16">
-        <v>16626.84690072521</v>
+        <v>14127.50019101531</v>
       </c>
       <c r="BZ16">
-        <v>16830.56687805948</v>
+        <v>14335.58062931263</v>
       </c>
       <c r="CA16">
-        <v>17041.94095318063</v>
+        <v>14557.12826293162</v>
       </c>
       <c r="CB16">
-        <v>17254.47430034212</v>
+        <v>14778.49938600473</v>
       </c>
       <c r="CC16">
-        <v>17467.70223253874</v>
+        <v>14999.07710283259</v>
       </c>
       <c r="CD16">
-        <v>17681.92413747746</v>
+        <v>15219.0097275136</v>
       </c>
       <c r="CE16">
-        <v>17897.30978427945</v>
+        <v>15438.32363697987</v>
       </c>
       <c r="CF16">
-        <v>18121.91601576321</v>
+        <v>15674.10615329409</v>
       </c>
       <c r="CG16">
-        <v>18348.58019505176</v>
+        <v>15909.90823034665</v>
       </c>
       <c r="CH16">
-        <v>18576.01770539844</v>
+        <v>16144.37874917593</v>
       </c>
       <c r="CI16">
-        <v>18803.80541622389</v>
+        <v>16377.07555541538</v>
       </c>
       <c r="CJ16">
-        <v>19031.41882953227</v>
+        <v>16607.51275274274</v>
       </c>
       <c r="CK16">
-        <v>19265.66767712773</v>
+        <v>16851.09989967515</v>
       </c>
       <c r="CL16">
-        <v>19500.52794695204</v>
+        <v>17093.46065642552</v>
       </c>
       <c r="CM16">
-        <v>19734.81250028743</v>
+        <v>17333.64853983192</v>
       </c>
       <c r="CN16">
-        <v>19968.71321948694</v>
+        <v>17572.15725957391</v>
       </c>
       <c r="CO16">
-        <v>20202.26947192577</v>
+        <v>17809.37605590947</v>
       </c>
     </row>
     <row r="17" spans="1:93">
@@ -4887,241 +4887,241 @@
         <v>47.13203588759467</v>
       </c>
       <c r="O17">
-        <v>59.76955643792016</v>
+        <v>59.77316571377775</v>
       </c>
       <c r="P17">
-        <v>372.3296517038024</v>
+        <v>372.3377569124021</v>
       </c>
       <c r="Q17">
-        <v>374.7522051342931</v>
+        <v>374.7658260355087</v>
       </c>
       <c r="R17">
-        <v>377.7401130616591</v>
+        <v>377.7603989990355</v>
       </c>
       <c r="S17">
-        <v>1181.609861818712</v>
+        <v>1181.638148326077</v>
       </c>
       <c r="T17">
-        <v>1185.822005236193</v>
+        <v>1185.859643357334</v>
       </c>
       <c r="U17">
-        <v>1190.631451559215</v>
+        <v>1190.679597444803</v>
       </c>
       <c r="V17">
-        <v>1195.981060686819</v>
+        <v>1196.039604434826</v>
       </c>
       <c r="W17">
-        <v>1201.780319299939</v>
+        <v>1201.843823442953</v>
       </c>
       <c r="X17">
-        <v>1155.227054376535</v>
+        <v>1155.272049148708</v>
       </c>
       <c r="Y17">
-        <v>1161.589655923261</v>
+        <v>1161.549083301814</v>
       </c>
       <c r="Z17">
-        <v>1168.102734092746</v>
+        <v>1167.875474210052</v>
       </c>
       <c r="AA17">
-        <v>1174.779027116157</v>
+        <v>1174.345900777053</v>
       </c>
       <c r="AB17">
-        <v>1181.782004572885</v>
+        <v>1181.22387299454</v>
       </c>
       <c r="AC17">
-        <v>254.6889919936471</v>
+        <v>254.0747611556594</v>
       </c>
       <c r="AD17">
-        <v>263.7715691192241</v>
+        <v>263.1321354490725</v>
       </c>
       <c r="AE17">
-        <v>275.197278448557</v>
+        <v>274.5429015346701</v>
       </c>
       <c r="AF17">
-        <v>290.2361922911918</v>
+        <v>289.5692334020318</v>
       </c>
       <c r="AG17">
-        <v>310.3786382543925</v>
+        <v>309.6988226784171</v>
       </c>
       <c r="AH17">
-        <v>160.3691417693777</v>
+        <v>159.6751965801479</v>
       </c>
       <c r="AI17">
-        <v>195.3225537945832</v>
+        <v>194.6133634929697</v>
       </c>
       <c r="AJ17">
-        <v>239.5511235501363</v>
+        <v>238.8257125198585</v>
       </c>
       <c r="AK17">
-        <v>293.6619998520576</v>
+        <v>292.919612663076</v>
       </c>
       <c r="AL17">
-        <v>357.5537449414951</v>
+        <v>356.7938636404224</v>
       </c>
       <c r="AM17">
-        <v>430.2883217440224</v>
+        <v>429.5104001506708</v>
       </c>
       <c r="AN17">
-        <v>510.0201622220969</v>
+        <v>509.2241145727834</v>
       </c>
       <c r="AO17">
-        <v>593.9938798843896</v>
+        <v>593.1797720665043</v>
       </c>
       <c r="AP17">
-        <v>678.6214720981041</v>
+        <v>677.7894817871054</v>
       </c>
       <c r="AQ17">
-        <v>759.6639568390757</v>
+        <v>758.8143375728417</v>
       </c>
       <c r="AR17">
-        <v>832.5385086685793</v>
+        <v>831.6708548664293</v>
       </c>
       <c r="AS17">
-        <v>892.7321367271791</v>
+        <v>891.8467838611085</v>
       </c>
       <c r="AT17">
-        <v>936.2918010792954</v>
+        <v>935.3890880078279</v>
       </c>
       <c r="AU17">
-        <v>960.3114871699012</v>
+        <v>959.3917443229662</v>
       </c>
       <c r="AV17">
-        <v>1082.583400706116</v>
+        <v>1081.646942464143</v>
       </c>
       <c r="AW17">
-        <v>1098.526573549738</v>
+        <v>1097.572210651469</v>
       </c>
       <c r="AX17">
-        <v>1061.756690902919</v>
+        <v>1060.78469232405</v>
       </c>
       <c r="AY17">
-        <v>1009.302270590213</v>
+        <v>1008.31288238286</v>
       </c>
       <c r="AZ17">
-        <v>945.5363776813008</v>
+        <v>944.5298233613398</v>
       </c>
       <c r="BA17">
-        <v>875.4895732386489</v>
+        <v>874.4660548331167</v>
       </c>
       <c r="BB17">
-        <v>787.0983695423961</v>
+        <v>786.056400472667</v>
       </c>
       <c r="BC17">
-        <v>720.1266857494863</v>
+        <v>719.0664287595706</v>
       </c>
       <c r="BD17">
-        <v>661.84290654134</v>
+        <v>660.7645077439997</v>
       </c>
       <c r="BE17">
-        <v>615.992399949528</v>
+        <v>614.8959904682916</v>
       </c>
       <c r="BF17">
-        <v>585.1681437878464</v>
+        <v>584.0538413312082</v>
       </c>
       <c r="BG17">
-        <v>553.5162258287503</v>
+        <v>552.3831068617582</v>
       </c>
       <c r="BH17">
-        <v>555.0753928282132</v>
+        <v>553.9235522922207</v>
       </c>
       <c r="BI17">
-        <v>571.3883657679364</v>
+        <v>570.2178893316217</v>
       </c>
       <c r="BJ17">
-        <v>600.2069782437269</v>
+        <v>599.0179434462954</v>
       </c>
       <c r="BK17">
-        <v>638.7897886777888</v>
+        <v>637.5822659727911</v>
       </c>
       <c r="BL17">
-        <v>671.3874159050853</v>
+        <v>670.160932815058</v>
       </c>
       <c r="BM17">
-        <v>720.8792885272618</v>
+        <v>719.6339043414529</v>
       </c>
       <c r="BN17">
-        <v>771.7518256180211</v>
+        <v>770.4875951402627</v>
       </c>
       <c r="BO17">
-        <v>821.5550986087015</v>
+        <v>820.2720729174732</v>
       </c>
       <c r="BP17">
-        <v>868.0739596348932</v>
+        <v>866.7721867990748</v>
       </c>
       <c r="BQ17">
-        <v>900.403481732511</v>
+        <v>899.0822431960868</v>
       </c>
       <c r="BR17">
-        <v>934.8580110701563</v>
+        <v>933.5173505151408</v>
       </c>
       <c r="BS17">
-        <v>961.234011593544</v>
+        <v>959.8739717599226</v>
       </c>
       <c r="BT17">
-        <v>978.7123028644958</v>
+        <v>977.3329261840015</v>
       </c>
       <c r="BU17">
-        <v>986.9281028752538</v>
+        <v>985.5294321057132</v>
       </c>
       <c r="BV17">
-        <v>977.2532621211108</v>
+        <v>975.8345370763443</v>
       </c>
       <c r="BW17">
-        <v>967.8080265975914</v>
+        <v>966.3692925734042</v>
       </c>
       <c r="BX17">
-        <v>950.972351608984</v>
+        <v>949.5136561533653</v>
       </c>
       <c r="BY17">
-        <v>928.344095563693</v>
+        <v>926.8654891008775</v>
       </c>
       <c r="BZ17">
-        <v>901.909444109967</v>
+        <v>900.4109805318071</v>
       </c>
       <c r="CA17">
-        <v>864.7261352739527</v>
+        <v>863.2068557909356</v>
       </c>
       <c r="CB17">
-        <v>837.4779870600426</v>
+        <v>835.9379539985297</v>
       </c>
       <c r="CC17">
-        <v>813.1671868317602</v>
+        <v>811.6064672604017</v>
       </c>
       <c r="CD17">
-        <v>793.6558954582119</v>
+        <v>792.0745612709042</v>
       </c>
       <c r="CE17">
-        <v>780.3283952293039</v>
+        <v>778.7265229570637</v>
       </c>
       <c r="CF17">
-        <v>763.6470061844703</v>
+        <v>762.0233946864953</v>
       </c>
       <c r="CG17">
-        <v>764.5608842436537</v>
+        <v>762.9156175149811</v>
       </c>
       <c r="CH17">
-        <v>772.4078768494185</v>
+        <v>770.7410407273867</v>
       </c>
       <c r="CI17">
-        <v>786.4280089890801</v>
+        <v>784.7396893209302</v>
       </c>
       <c r="CJ17">
-        <v>805.5115343895613</v>
+        <v>803.8018147752319</v>
       </c>
       <c r="CK17">
-        <v>814.1572604382247</v>
+        <v>812.4248148880639</v>
       </c>
       <c r="CL17">
-        <v>839.203603170178</v>
+        <v>837.4485031995943</v>
       </c>
       <c r="CM17">
-        <v>864.9992818832554</v>
+        <v>863.2215886881768</v>
       </c>
       <c r="CN17">
-        <v>890.1188902615951</v>
+        <v>888.3186522386331</v>
       </c>
       <c r="CO17">
-        <v>913.284047223814</v>
+        <v>911.4612980030594</v>
       </c>
     </row>
   </sheetData>
